--- a/docs/IMR-SampleSubmissionSheet_v14(LASTNAME_MMMDD).xlsx
+++ b/docs/IMR-SampleSubmissionSheet_v14(LASTNAME_MMMDD).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22430"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4238BA9A-1616-49DC-B4C9-3DC6802FD038}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B2096B3-8A39-4241-9773-D71BE8C943C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="742" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -748,9 +748,6 @@
     <t>Euk+Fungi</t>
   </si>
   <si>
-    <t>BactV6/8+Arch</t>
-  </si>
-  <si>
     <t>BactV6/8+Cyano</t>
   </si>
   <si>
@@ -940,9 +937,6 @@
   </si>
   <si>
     <t>Contact us (in development).</t>
-  </si>
-  <si>
-    <t>Popular MiSeq Combos:</t>
   </si>
   <si>
     <t>MiSeq Short Amplicons</t>
@@ -1495,29 +1489,35 @@
     <t>UNIVERSAL - V4-V5</t>
   </si>
   <si>
-    <t>BactV6/8+Univ</t>
-  </si>
-  <si>
-    <t>Univ+Arch</t>
-  </si>
-  <si>
-    <t>Univ+Cyano</t>
-  </si>
-  <si>
-    <t>Univ+Euk</t>
-  </si>
-  <si>
-    <t>Univ+Fungi</t>
-  </si>
-  <si>
-    <t>Univ+Euk+Fungi</t>
+    <t>BactV6/8+UnivV4/5</t>
+  </si>
+  <si>
+    <t>BactV6/8+ArchV6/8</t>
+  </si>
+  <si>
+    <t>UnivV4/5+ArchV6/8</t>
+  </si>
+  <si>
+    <t>UnivV4/5+Cyano</t>
+  </si>
+  <si>
+    <t>UnivV4/5+Euk</t>
+  </si>
+  <si>
+    <t>UnivV4/5+Fungi</t>
+  </si>
+  <si>
+    <t>UnivV4/5+Euk+Fungi</t>
+  </si>
+  <si>
+    <t>Popular Combos:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1679,6 +1679,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2159,7 +2167,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="165">
+  <cellXfs count="167">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2485,11 +2493,65 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2518,73 +2580,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2977,7 +2989,7 @@
     <row r="6" spans="1:2" s="84" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="20"/>
       <c r="B6" s="105" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
@@ -2995,7 +3007,7 @@
     <row r="9" spans="1:2" ht="75" x14ac:dyDescent="0.3">
       <c r="A9" s="14"/>
       <c r="B9" s="99" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
@@ -3025,7 +3037,7 @@
     </row>
     <row r="15" spans="1:2" s="119" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B15" s="106" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="56.25" x14ac:dyDescent="0.3">
@@ -3040,7 +3052,7 @@
     </row>
     <row r="18" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
@@ -3099,7 +3111,7 @@
     </row>
     <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="123" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B3" s="123"/>
       <c r="C3" s="123"/>
@@ -3110,7 +3122,7 @@
         <v>69</v>
       </c>
       <c r="C4" s="96" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
@@ -3146,14 +3158,14 @@
     <row r="9" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="14"/>
       <c r="B9" s="127" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C9" s="127"/>
     </row>
     <row r="10" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="14"/>
       <c r="B10" s="128" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C10" s="128"/>
     </row>
@@ -3169,7 +3181,7 @@
         <v>69</v>
       </c>
       <c r="C13" s="79" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
@@ -3177,7 +3189,7 @@
         <v>70</v>
       </c>
       <c r="C14" s="79" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
@@ -3185,7 +3197,7 @@
         <v>71</v>
       </c>
       <c r="C15" s="75" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
@@ -3200,10 +3212,10 @@
     </row>
     <row r="18" spans="1:3" s="76" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B18" s="75" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C18" s="80" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:3" s="76" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -3211,7 +3223,7 @@
         <v>70</v>
       </c>
       <c r="C19" s="80" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:3" s="76" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -3219,7 +3231,7 @@
         <v>71</v>
       </c>
       <c r="C20" s="75" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
@@ -3237,7 +3249,7 @@
         <v>69</v>
       </c>
       <c r="C23" s="79" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
@@ -3245,7 +3257,7 @@
         <v>70</v>
       </c>
       <c r="C24" s="79" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
@@ -3253,7 +3265,7 @@
         <v>71</v>
       </c>
       <c r="C25" s="75" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
@@ -3261,19 +3273,19 @@
     </row>
     <row r="27" spans="1:3" s="76" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A27" s="122" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B27" s="122"/>
       <c r="C27" s="122"/>
     </row>
     <row r="28" spans="1:3" s="76" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B28" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A30" s="122" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B30" s="122"/>
       <c r="C30" s="122"/>
@@ -3281,7 +3293,7 @@
     <row r="31" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A31" s="84"/>
       <c r="B31" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C31" s="84"/>
     </row>
@@ -3319,20 +3331,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="129" t="s">
-        <v>173</v>
-      </c>
-      <c r="B1" s="129"/>
-      <c r="C1" s="129"/>
-      <c r="D1" s="129"/>
-      <c r="E1" s="129"/>
-      <c r="F1" s="129"/>
-      <c r="G1" s="129"/>
-      <c r="H1" s="129"/>
-      <c r="I1" s="129"/>
-      <c r="J1" s="129"/>
-      <c r="K1" s="129"/>
-      <c r="L1" s="129"/>
+      <c r="A1" s="135" t="s">
+        <v>171</v>
+      </c>
+      <c r="B1" s="135"/>
+      <c r="C1" s="135"/>
+      <c r="D1" s="135"/>
+      <c r="E1" s="135"/>
+      <c r="F1" s="135"/>
+      <c r="G1" s="135"/>
+      <c r="H1" s="135"/>
+      <c r="I1" s="135"/>
+      <c r="J1" s="135"/>
+      <c r="K1" s="135"/>
+      <c r="L1" s="135"/>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="S2" s="7"/>
@@ -3351,35 +3363,35 @@
       <c r="AF2" s="7"/>
     </row>
     <row r="3" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="130" t="s">
+      <c r="A3" s="132" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="130"/>
-      <c r="C3" s="141"/>
-      <c r="D3" s="142"/>
-      <c r="E3" s="142"/>
-      <c r="F3" s="142"/>
-      <c r="G3" s="143"/>
-      <c r="J3" s="130" t="s">
+      <c r="B3" s="132"/>
+      <c r="C3" s="129"/>
+      <c r="D3" s="130"/>
+      <c r="E3" s="130"/>
+      <c r="F3" s="130"/>
+      <c r="G3" s="131"/>
+      <c r="J3" s="132" t="s">
         <v>36</v>
       </c>
-      <c r="K3" s="130"/>
-      <c r="L3" s="130"/>
-      <c r="M3" s="153"/>
-      <c r="N3" s="153"/>
-      <c r="O3" s="153"/>
-      <c r="P3" s="153"/>
-      <c r="Q3" s="153"/>
-      <c r="R3" s="153"/>
-      <c r="S3" s="153"/>
-      <c r="T3" s="153"/>
-      <c r="U3" s="153"/>
-      <c r="V3" s="153"/>
-      <c r="W3" s="153"/>
-      <c r="X3" s="153"/>
-      <c r="Y3" s="153"/>
-      <c r="Z3" s="153"/>
-      <c r="AA3" s="153"/>
+      <c r="K3" s="132"/>
+      <c r="L3" s="132"/>
+      <c r="M3" s="133"/>
+      <c r="N3" s="133"/>
+      <c r="O3" s="133"/>
+      <c r="P3" s="133"/>
+      <c r="Q3" s="133"/>
+      <c r="R3" s="133"/>
+      <c r="S3" s="133"/>
+      <c r="T3" s="133"/>
+      <c r="U3" s="133"/>
+      <c r="V3" s="133"/>
+      <c r="W3" s="133"/>
+      <c r="X3" s="133"/>
+      <c r="Y3" s="133"/>
+      <c r="Z3" s="133"/>
+      <c r="AA3" s="133"/>
       <c r="AB3" s="6"/>
       <c r="AC3" s="6"/>
       <c r="AD3" s="6"/>
@@ -3387,35 +3399,35 @@
       <c r="AF3" s="7"/>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A4" s="130" t="s">
+      <c r="A4" s="132" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="130"/>
-      <c r="C4" s="141"/>
-      <c r="D4" s="142"/>
-      <c r="E4" s="142"/>
-      <c r="F4" s="142"/>
-      <c r="G4" s="143"/>
-      <c r="J4" s="130" t="s">
+      <c r="B4" s="132"/>
+      <c r="C4" s="129"/>
+      <c r="D4" s="130"/>
+      <c r="E4" s="130"/>
+      <c r="F4" s="130"/>
+      <c r="G4" s="131"/>
+      <c r="J4" s="132" t="s">
         <v>35</v>
       </c>
-      <c r="K4" s="130"/>
-      <c r="L4" s="130"/>
-      <c r="M4" s="153"/>
-      <c r="N4" s="153"/>
-      <c r="O4" s="153"/>
-      <c r="P4" s="153"/>
-      <c r="Q4" s="153"/>
-      <c r="R4" s="153"/>
-      <c r="S4" s="153"/>
-      <c r="T4" s="153"/>
-      <c r="U4" s="153"/>
-      <c r="V4" s="153"/>
-      <c r="W4" s="153"/>
-      <c r="X4" s="153"/>
-      <c r="Y4" s="153"/>
-      <c r="Z4" s="153"/>
-      <c r="AA4" s="153"/>
+      <c r="K4" s="132"/>
+      <c r="L4" s="132"/>
+      <c r="M4" s="133"/>
+      <c r="N4" s="133"/>
+      <c r="O4" s="133"/>
+      <c r="P4" s="133"/>
+      <c r="Q4" s="133"/>
+      <c r="R4" s="133"/>
+      <c r="S4" s="133"/>
+      <c r="T4" s="133"/>
+      <c r="U4" s="133"/>
+      <c r="V4" s="133"/>
+      <c r="W4" s="133"/>
+      <c r="X4" s="133"/>
+      <c r="Y4" s="133"/>
+      <c r="Z4" s="133"/>
+      <c r="AA4" s="133"/>
       <c r="AB4" s="6"/>
       <c r="AC4" s="6"/>
       <c r="AD4" s="6"/>
@@ -3424,26 +3436,26 @@
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="I5"/>
-      <c r="J5" s="140" t="s">
+      <c r="J5" s="136" t="s">
         <v>37</v>
       </c>
-      <c r="K5" s="140"/>
-      <c r="L5" s="140"/>
-      <c r="M5" s="153"/>
-      <c r="N5" s="153"/>
-      <c r="O5" s="153"/>
-      <c r="P5" s="153"/>
-      <c r="Q5" s="153"/>
-      <c r="R5" s="153"/>
-      <c r="S5" s="153"/>
-      <c r="T5" s="153"/>
-      <c r="U5" s="153"/>
-      <c r="V5" s="153"/>
-      <c r="W5" s="153"/>
-      <c r="X5" s="153"/>
-      <c r="Y5" s="153"/>
-      <c r="Z5" s="153"/>
-      <c r="AA5" s="153"/>
+      <c r="K5" s="136"/>
+      <c r="L5" s="136"/>
+      <c r="M5" s="133"/>
+      <c r="N5" s="133"/>
+      <c r="O5" s="133"/>
+      <c r="P5" s="133"/>
+      <c r="Q5" s="133"/>
+      <c r="R5" s="133"/>
+      <c r="S5" s="133"/>
+      <c r="T5" s="133"/>
+      <c r="U5" s="133"/>
+      <c r="V5" s="133"/>
+      <c r="W5" s="133"/>
+      <c r="X5" s="133"/>
+      <c r="Y5" s="133"/>
+      <c r="Z5" s="133"/>
+      <c r="AA5" s="133"/>
       <c r="AB5" s="6"/>
       <c r="AC5" s="6"/>
       <c r="AD5" s="6"/>
@@ -3451,30 +3463,30 @@
       <c r="AF5" s="7"/>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A6" s="130" t="s">
-        <v>156</v>
-      </c>
-      <c r="B6" s="130"/>
-      <c r="C6" s="141"/>
-      <c r="D6" s="142"/>
-      <c r="E6" s="142"/>
-      <c r="F6" s="142"/>
-      <c r="G6" s="143"/>
-      <c r="M6" s="153"/>
-      <c r="N6" s="153"/>
-      <c r="O6" s="153"/>
-      <c r="P6" s="153"/>
-      <c r="Q6" s="153"/>
-      <c r="R6" s="153"/>
-      <c r="S6" s="153"/>
-      <c r="T6" s="153"/>
-      <c r="U6" s="153"/>
-      <c r="V6" s="153"/>
-      <c r="W6" s="153"/>
-      <c r="X6" s="153"/>
-      <c r="Y6" s="153"/>
-      <c r="Z6" s="153"/>
-      <c r="AA6" s="153"/>
+      <c r="A6" s="132" t="s">
+        <v>154</v>
+      </c>
+      <c r="B6" s="132"/>
+      <c r="C6" s="129"/>
+      <c r="D6" s="130"/>
+      <c r="E6" s="130"/>
+      <c r="F6" s="130"/>
+      <c r="G6" s="131"/>
+      <c r="M6" s="133"/>
+      <c r="N6" s="133"/>
+      <c r="O6" s="133"/>
+      <c r="P6" s="133"/>
+      <c r="Q6" s="133"/>
+      <c r="R6" s="133"/>
+      <c r="S6" s="133"/>
+      <c r="T6" s="133"/>
+      <c r="U6" s="133"/>
+      <c r="V6" s="133"/>
+      <c r="W6" s="133"/>
+      <c r="X6" s="133"/>
+      <c r="Y6" s="133"/>
+      <c r="Z6" s="133"/>
+      <c r="AA6" s="133"/>
       <c r="AB6" s="7"/>
       <c r="AC6" s="7"/>
       <c r="AD6" s="7"/>
@@ -3482,30 +3494,30 @@
       <c r="AF6" s="7"/>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A7" s="130" t="s">
+      <c r="A7" s="132" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="130"/>
-      <c r="C7" s="141"/>
-      <c r="D7" s="142"/>
-      <c r="E7" s="142"/>
-      <c r="F7" s="142"/>
-      <c r="G7" s="143"/>
-      <c r="M7" s="153"/>
-      <c r="N7" s="153"/>
-      <c r="O7" s="153"/>
-      <c r="P7" s="153"/>
-      <c r="Q7" s="153"/>
-      <c r="R7" s="153"/>
-      <c r="S7" s="153"/>
-      <c r="T7" s="153"/>
-      <c r="U7" s="153"/>
-      <c r="V7" s="153"/>
-      <c r="W7" s="153"/>
-      <c r="X7" s="153"/>
-      <c r="Y7" s="153"/>
-      <c r="Z7" s="153"/>
-      <c r="AA7" s="153"/>
+      <c r="B7" s="132"/>
+      <c r="C7" s="129"/>
+      <c r="D7" s="130"/>
+      <c r="E7" s="130"/>
+      <c r="F7" s="130"/>
+      <c r="G7" s="131"/>
+      <c r="M7" s="133"/>
+      <c r="N7" s="133"/>
+      <c r="O7" s="133"/>
+      <c r="P7" s="133"/>
+      <c r="Q7" s="133"/>
+      <c r="R7" s="133"/>
+      <c r="S7" s="133"/>
+      <c r="T7" s="133"/>
+      <c r="U7" s="133"/>
+      <c r="V7" s="133"/>
+      <c r="W7" s="133"/>
+      <c r="X7" s="133"/>
+      <c r="Y7" s="133"/>
+      <c r="Z7" s="133"/>
+      <c r="AA7" s="133"/>
       <c r="AB7" s="7"/>
       <c r="AC7" s="7"/>
       <c r="AD7" s="7"/>
@@ -3517,31 +3529,31 @@
       <c r="B8" s="31" t="s">
         <v>99</v>
       </c>
-      <c r="C8" s="144"/>
-      <c r="D8" s="145"/>
-      <c r="E8" s="145"/>
-      <c r="F8" s="145"/>
-      <c r="G8" s="146"/>
+      <c r="C8" s="137"/>
+      <c r="D8" s="138"/>
+      <c r="E8" s="138"/>
+      <c r="F8" s="138"/>
+      <c r="G8" s="139"/>
       <c r="H8" s="33"/>
       <c r="I8" s="33"/>
       <c r="J8" s="33"/>
       <c r="K8" s="33"/>
       <c r="L8" s="33"/>
-      <c r="M8" s="153"/>
-      <c r="N8" s="153"/>
-      <c r="O8" s="153"/>
-      <c r="P8" s="153"/>
-      <c r="Q8" s="153"/>
-      <c r="R8" s="153"/>
-      <c r="S8" s="153"/>
-      <c r="T8" s="153"/>
-      <c r="U8" s="153"/>
-      <c r="V8" s="153"/>
-      <c r="W8" s="153"/>
-      <c r="X8" s="153"/>
-      <c r="Y8" s="153"/>
-      <c r="Z8" s="153"/>
-      <c r="AA8" s="153"/>
+      <c r="M8" s="133"/>
+      <c r="N8" s="133"/>
+      <c r="O8" s="133"/>
+      <c r="P8" s="133"/>
+      <c r="Q8" s="133"/>
+      <c r="R8" s="133"/>
+      <c r="S8" s="133"/>
+      <c r="T8" s="133"/>
+      <c r="U8" s="133"/>
+      <c r="V8" s="133"/>
+      <c r="W8" s="133"/>
+      <c r="X8" s="133"/>
+      <c r="Y8" s="133"/>
+      <c r="Z8" s="133"/>
+      <c r="AA8" s="133"/>
       <c r="AB8" s="7"/>
       <c r="AC8" s="7"/>
       <c r="AD8" s="7"/>
@@ -3551,31 +3563,31 @@
     <row r="9" spans="1:32" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="31"/>
       <c r="B9" s="31"/>
-      <c r="C9" s="147"/>
-      <c r="D9" s="148"/>
-      <c r="E9" s="148"/>
-      <c r="F9" s="148"/>
-      <c r="G9" s="149"/>
+      <c r="C9" s="140"/>
+      <c r="D9" s="141"/>
+      <c r="E9" s="141"/>
+      <c r="F9" s="141"/>
+      <c r="G9" s="142"/>
       <c r="H9" s="33"/>
       <c r="I9" s="33"/>
       <c r="J9" s="33"/>
       <c r="K9" s="33"/>
       <c r="L9" s="33"/>
-      <c r="M9" s="153"/>
-      <c r="N9" s="153"/>
-      <c r="O9" s="153"/>
-      <c r="P9" s="153"/>
-      <c r="Q9" s="153"/>
-      <c r="R9" s="153"/>
-      <c r="S9" s="153"/>
-      <c r="T9" s="153"/>
-      <c r="U9" s="153"/>
-      <c r="V9" s="153"/>
-      <c r="W9" s="153"/>
-      <c r="X9" s="153"/>
-      <c r="Y9" s="153"/>
-      <c r="Z9" s="153"/>
-      <c r="AA9" s="153"/>
+      <c r="M9" s="133"/>
+      <c r="N9" s="133"/>
+      <c r="O9" s="133"/>
+      <c r="P9" s="133"/>
+      <c r="Q9" s="133"/>
+      <c r="R9" s="133"/>
+      <c r="S9" s="133"/>
+      <c r="T9" s="133"/>
+      <c r="U9" s="133"/>
+      <c r="V9" s="133"/>
+      <c r="W9" s="133"/>
+      <c r="X9" s="133"/>
+      <c r="Y9" s="133"/>
+      <c r="Z9" s="133"/>
+      <c r="AA9" s="133"/>
       <c r="AB9" s="7"/>
       <c r="AC9" s="7"/>
       <c r="AD9" s="7"/>
@@ -3595,21 +3607,21 @@
       <c r="J10" s="33"/>
       <c r="K10" s="33"/>
       <c r="L10" s="33"/>
-      <c r="M10" s="153"/>
-      <c r="N10" s="153"/>
-      <c r="O10" s="153"/>
-      <c r="P10" s="153"/>
-      <c r="Q10" s="153"/>
-      <c r="R10" s="153"/>
-      <c r="S10" s="153"/>
-      <c r="T10" s="153"/>
-      <c r="U10" s="153"/>
-      <c r="V10" s="153"/>
-      <c r="W10" s="153"/>
-      <c r="X10" s="153"/>
-      <c r="Y10" s="153"/>
-      <c r="Z10" s="153"/>
-      <c r="AA10" s="153"/>
+      <c r="M10" s="133"/>
+      <c r="N10" s="133"/>
+      <c r="O10" s="133"/>
+      <c r="P10" s="133"/>
+      <c r="Q10" s="133"/>
+      <c r="R10" s="133"/>
+      <c r="S10" s="133"/>
+      <c r="T10" s="133"/>
+      <c r="U10" s="133"/>
+      <c r="V10" s="133"/>
+      <c r="W10" s="133"/>
+      <c r="X10" s="133"/>
+      <c r="Y10" s="133"/>
+      <c r="Z10" s="133"/>
+      <c r="AA10" s="133"/>
       <c r="AB10" s="7"/>
       <c r="AC10" s="7"/>
       <c r="AD10" s="7"/>
@@ -3617,14 +3629,14 @@
       <c r="AF10" s="7"/>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A11" s="154" t="s">
-        <v>139</v>
+      <c r="A11" s="134" t="s">
+        <v>137</v>
       </c>
       <c r="B11" s="60"/>
       <c r="C11" s="61"/>
       <c r="D11" s="61"/>
       <c r="E11" s="73" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F11" s="61"/>
       <c r="G11" s="61"/>
@@ -3633,21 +3645,21 @@
       <c r="J11" s="62"/>
       <c r="K11" s="63"/>
       <c r="L11" s="10"/>
-      <c r="M11" s="153"/>
-      <c r="N11" s="153"/>
-      <c r="O11" s="153"/>
-      <c r="P11" s="153"/>
-      <c r="Q11" s="153"/>
-      <c r="R11" s="153"/>
-      <c r="S11" s="153"/>
-      <c r="T11" s="153"/>
-      <c r="U11" s="153"/>
-      <c r="V11" s="153"/>
-      <c r="W11" s="153"/>
-      <c r="X11" s="153"/>
-      <c r="Y11" s="153"/>
-      <c r="Z11" s="153"/>
-      <c r="AA11" s="153"/>
+      <c r="M11" s="133"/>
+      <c r="N11" s="133"/>
+      <c r="O11" s="133"/>
+      <c r="P11" s="133"/>
+      <c r="Q11" s="133"/>
+      <c r="R11" s="133"/>
+      <c r="S11" s="133"/>
+      <c r="T11" s="133"/>
+      <c r="U11" s="133"/>
+      <c r="V11" s="133"/>
+      <c r="W11" s="133"/>
+      <c r="X11" s="133"/>
+      <c r="Y11" s="133"/>
+      <c r="Z11" s="133"/>
+      <c r="AA11" s="133"/>
       <c r="AB11" s="7"/>
       <c r="AC11" s="7"/>
       <c r="AD11" s="7"/>
@@ -3655,36 +3667,36 @@
       <c r="AF11" s="7"/>
     </row>
     <row r="12" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="154"/>
+      <c r="A12" s="134"/>
       <c r="B12" s="59"/>
       <c r="D12" s="108" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E12" s="39"/>
       <c r="F12" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="I12" s="150" t="s">
-        <v>112</v>
-      </c>
-      <c r="J12" s="150"/>
-      <c r="K12" s="151"/>
+        <v>173</v>
+      </c>
+      <c r="I12" s="143" t="s">
+        <v>111</v>
+      </c>
+      <c r="J12" s="143"/>
+      <c r="K12" s="144"/>
       <c r="L12" s="10"/>
-      <c r="M12" s="153"/>
-      <c r="N12" s="153"/>
-      <c r="O12" s="153"/>
-      <c r="P12" s="153"/>
-      <c r="Q12" s="153"/>
-      <c r="R12" s="153"/>
-      <c r="S12" s="153"/>
-      <c r="T12" s="153"/>
-      <c r="U12" s="153"/>
-      <c r="V12" s="153"/>
-      <c r="W12" s="153"/>
-      <c r="X12" s="153"/>
-      <c r="Y12" s="153"/>
-      <c r="Z12" s="153"/>
-      <c r="AA12" s="153"/>
+      <c r="M12" s="133"/>
+      <c r="N12" s="133"/>
+      <c r="O12" s="133"/>
+      <c r="P12" s="133"/>
+      <c r="Q12" s="133"/>
+      <c r="R12" s="133"/>
+      <c r="S12" s="133"/>
+      <c r="T12" s="133"/>
+      <c r="U12" s="133"/>
+      <c r="V12" s="133"/>
+      <c r="W12" s="133"/>
+      <c r="X12" s="133"/>
+      <c r="Y12" s="133"/>
+      <c r="Z12" s="133"/>
+      <c r="AA12" s="133"/>
       <c r="AB12" s="7"/>
       <c r="AC12" s="7"/>
       <c r="AD12" s="7"/>
@@ -3692,31 +3704,31 @@
       <c r="AF12" s="7"/>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A13" s="154"/>
+      <c r="A13" s="134"/>
       <c r="B13" s="59"/>
       <c r="C13" s="118"/>
       <c r="D13" s="11"/>
       <c r="G13" s="118"/>
       <c r="H13" s="118"/>
-      <c r="I13" s="150"/>
-      <c r="J13" s="150"/>
-      <c r="K13" s="151"/>
+      <c r="I13" s="143"/>
+      <c r="J13" s="143"/>
+      <c r="K13" s="144"/>
       <c r="L13" s="10"/>
-      <c r="M13" s="153"/>
-      <c r="N13" s="153"/>
-      <c r="O13" s="153"/>
-      <c r="P13" s="153"/>
-      <c r="Q13" s="153"/>
-      <c r="R13" s="153"/>
-      <c r="S13" s="153"/>
-      <c r="T13" s="153"/>
-      <c r="U13" s="153"/>
-      <c r="V13" s="153"/>
-      <c r="W13" s="153"/>
-      <c r="X13" s="153"/>
-      <c r="Y13" s="153"/>
-      <c r="Z13" s="153"/>
-      <c r="AA13" s="153"/>
+      <c r="M13" s="133"/>
+      <c r="N13" s="133"/>
+      <c r="O13" s="133"/>
+      <c r="P13" s="133"/>
+      <c r="Q13" s="133"/>
+      <c r="R13" s="133"/>
+      <c r="S13" s="133"/>
+      <c r="T13" s="133"/>
+      <c r="U13" s="133"/>
+      <c r="V13" s="133"/>
+      <c r="W13" s="133"/>
+      <c r="X13" s="133"/>
+      <c r="Y13" s="133"/>
+      <c r="Z13" s="133"/>
+      <c r="AA13" s="133"/>
       <c r="AB13" s="7"/>
       <c r="AC13" s="7"/>
       <c r="AD13" s="7"/>
@@ -3724,34 +3736,34 @@
       <c r="AF13" s="7"/>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A14" s="154"/>
+      <c r="A14" s="134"/>
       <c r="B14" s="58"/>
       <c r="D14" s="9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E14" s="22"/>
       <c r="F14" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="I14" s="150"/>
-      <c r="J14" s="150"/>
-      <c r="K14" s="151"/>
+      <c r="I14" s="143"/>
+      <c r="J14" s="143"/>
+      <c r="K14" s="144"/>
       <c r="L14" s="10"/>
-      <c r="M14" s="153"/>
-      <c r="N14" s="153"/>
-      <c r="O14" s="153"/>
-      <c r="P14" s="153"/>
-      <c r="Q14" s="153"/>
-      <c r="R14" s="153"/>
-      <c r="S14" s="153"/>
-      <c r="T14" s="153"/>
-      <c r="U14" s="153"/>
-      <c r="V14" s="153"/>
-      <c r="W14" s="153"/>
-      <c r="X14" s="153"/>
-      <c r="Y14" s="153"/>
-      <c r="Z14" s="153"/>
-      <c r="AA14" s="153"/>
+      <c r="M14" s="133"/>
+      <c r="N14" s="133"/>
+      <c r="O14" s="133"/>
+      <c r="P14" s="133"/>
+      <c r="Q14" s="133"/>
+      <c r="R14" s="133"/>
+      <c r="S14" s="133"/>
+      <c r="T14" s="133"/>
+      <c r="U14" s="133"/>
+      <c r="V14" s="133"/>
+      <c r="W14" s="133"/>
+      <c r="X14" s="133"/>
+      <c r="Y14" s="133"/>
+      <c r="Z14" s="133"/>
+      <c r="AA14" s="133"/>
       <c r="AB14" s="7"/>
       <c r="AC14" s="7"/>
       <c r="AD14" s="7"/>
@@ -3759,7 +3771,7 @@
       <c r="AF14" s="7"/>
     </row>
     <row r="15" spans="1:32" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="154"/>
+      <c r="A15" s="134"/>
       <c r="B15" s="58"/>
       <c r="C15" s="4"/>
       <c r="D15" s="9"/>
@@ -3769,9 +3781,9 @@
       </c>
       <c r="G15" s="12"/>
       <c r="H15" s="4"/>
-      <c r="I15" s="150"/>
-      <c r="J15" s="150"/>
-      <c r="K15" s="151"/>
+      <c r="I15" s="143"/>
+      <c r="J15" s="143"/>
+      <c r="K15" s="144"/>
       <c r="L15" s="29"/>
       <c r="M15" s="29"/>
       <c r="N15" s="29"/>
@@ -3795,7 +3807,7 @@
       <c r="AF15" s="7"/>
     </row>
     <row r="16" spans="1:32" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="154"/>
+      <c r="A16" s="134"/>
       <c r="B16" s="58"/>
       <c r="C16" s="30"/>
       <c r="D16" s="28"/>
@@ -3805,9 +3817,9 @@
       </c>
       <c r="G16" s="12"/>
       <c r="H16" s="30"/>
-      <c r="I16" s="150"/>
-      <c r="J16" s="150"/>
-      <c r="K16" s="151"/>
+      <c r="I16" s="143"/>
+      <c r="J16" s="143"/>
+      <c r="K16" s="144"/>
       <c r="L16" s="33"/>
       <c r="M16" s="33"/>
       <c r="N16" s="33"/>
@@ -3831,15 +3843,15 @@
       <c r="AF16" s="7"/>
     </row>
     <row r="17" spans="1:32" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="154"/>
+      <c r="A17" s="134"/>
       <c r="B17" s="58"/>
       <c r="D17" s="31"/>
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
       <c r="G17" s="12"/>
-      <c r="I17" s="150"/>
-      <c r="J17" s="150"/>
-      <c r="K17" s="151"/>
+      <c r="I17" s="143"/>
+      <c r="J17" s="143"/>
+      <c r="K17" s="144"/>
       <c r="L17" s="33"/>
       <c r="M17" s="33"/>
       <c r="N17" s="33"/>
@@ -3862,10 +3874,10 @@
       <c r="AF17" s="7"/>
     </row>
     <row r="18" spans="1:32" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="154"/>
+      <c r="A18" s="134"/>
       <c r="B18" s="58"/>
       <c r="D18" s="31" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E18" s="40"/>
       <c r="F18" s="11" t="s">
@@ -3898,7 +3910,7 @@
       <c r="AF18" s="7"/>
     </row>
     <row r="19" spans="1:32" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="154"/>
+      <c r="A19" s="134"/>
       <c r="B19" s="58"/>
       <c r="D19" s="31"/>
       <c r="E19" s="11"/>
@@ -3929,10 +3941,10 @@
       <c r="AF19" s="7"/>
     </row>
     <row r="20" spans="1:32" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="154"/>
+      <c r="A20" s="134"/>
       <c r="B20" s="58"/>
       <c r="D20" s="31" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E20" s="41"/>
       <c r="F20" s="11" t="s">
@@ -3940,30 +3952,30 @@
       </c>
       <c r="G20" s="12"/>
       <c r="J20" s="45" t="s">
-        <v>138</v>
+        <v>181</v>
       </c>
       <c r="K20" s="46"/>
-      <c r="L20" s="11" t="s">
-        <v>176</v>
+      <c r="L20" s="165" t="s">
+        <v>174</v>
       </c>
       <c r="M20" s="33"/>
       <c r="N20" s="49"/>
-      <c r="O20" s="11" t="s">
-        <v>105</v>
+      <c r="O20" s="165" t="s">
+        <v>104</v>
       </c>
       <c r="P20" s="33"/>
       <c r="Q20" s="50"/>
-      <c r="R20" s="11" t="s">
-        <v>177</v>
+      <c r="R20" s="165" t="s">
+        <v>176</v>
       </c>
       <c r="T20" s="54"/>
-      <c r="U20" s="11" t="s">
-        <v>180</v>
+      <c r="U20" s="165" t="s">
+        <v>179</v>
       </c>
       <c r="V20" s="33"/>
       <c r="W20" s="56"/>
-      <c r="X20" s="11" t="s">
-        <v>107</v>
+      <c r="X20" s="165" t="s">
+        <v>106</v>
       </c>
       <c r="Y20" s="85"/>
       <c r="Z20" s="65"/>
@@ -3975,34 +3987,35 @@
       <c r="AF20" s="7"/>
     </row>
     <row r="21" spans="1:32" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="154"/>
+      <c r="A21" s="134"/>
       <c r="B21" s="58"/>
       <c r="D21" s="11"/>
       <c r="E21" s="11"/>
       <c r="F21" s="11"/>
       <c r="G21" s="12"/>
       <c r="J21" s="77" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K21" s="47"/>
-      <c r="L21" s="11" t="s">
-        <v>103</v>
+      <c r="L21" s="165" t="s">
+        <v>175</v>
       </c>
       <c r="M21" s="33"/>
       <c r="N21" s="53"/>
-      <c r="O21" s="11" t="s">
-        <v>106</v>
+      <c r="O21" s="165" t="s">
+        <v>105</v>
       </c>
       <c r="P21" s="33"/>
       <c r="Q21" s="51"/>
-      <c r="R21" s="11" t="s">
-        <v>178</v>
+      <c r="R21" s="165" t="s">
+        <v>177</v>
       </c>
       <c r="S21" s="33"/>
+      <c r="U21" s="166"/>
       <c r="V21" s="33"/>
       <c r="W21" s="57"/>
-      <c r="X21" s="11" t="s">
-        <v>181</v>
+      <c r="X21" s="165" t="s">
+        <v>180</v>
       </c>
       <c r="Y21" s="85"/>
       <c r="Z21" s="65"/>
@@ -4014,32 +4027,32 @@
       <c r="AF21" s="7"/>
     </row>
     <row r="22" spans="1:32" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="154"/>
+      <c r="A22" s="134"/>
       <c r="B22" s="58"/>
       <c r="D22" s="31" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E22" s="44"/>
       <c r="F22" s="11" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G22" s="12"/>
       <c r="J22" s="77" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K22" s="48"/>
-      <c r="L22" s="11" t="s">
-        <v>104</v>
+      <c r="L22" s="165" t="s">
+        <v>103</v>
       </c>
       <c r="M22" s="33"/>
       <c r="P22" s="33"/>
       <c r="Q22" s="52"/>
-      <c r="R22" s="11" t="s">
-        <v>179</v>
+      <c r="R22" s="165" t="s">
+        <v>178</v>
       </c>
       <c r="S22" s="33"/>
       <c r="T22" s="55"/>
-      <c r="U22" s="11" t="s">
+      <c r="U22" s="165" t="s">
         <v>102</v>
       </c>
       <c r="V22" s="33"/>
@@ -4175,7 +4188,7 @@
       <c r="A27" s="97"/>
       <c r="B27" s="13"/>
       <c r="C27" s="109" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D27" s="110"/>
       <c r="E27" s="110"/>
@@ -4206,7 +4219,7 @@
       <c r="A28" s="8"/>
       <c r="B28" s="97"/>
       <c r="C28" s="109" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D28" s="110"/>
       <c r="E28" s="110"/>
@@ -4237,7 +4250,7 @@
       <c r="A29" s="8"/>
       <c r="B29" s="8"/>
       <c r="C29" s="109" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D29" s="110"/>
       <c r="E29" s="110"/>
@@ -4268,7 +4281,7 @@
       <c r="A30" s="108"/>
       <c r="B30" s="8"/>
       <c r="C30" s="115" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D30" s="116"/>
       <c r="E30" s="116"/>
@@ -5942,12 +5955,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
     <mergeCell ref="M3:AA14"/>
     <mergeCell ref="A11:A22"/>
     <mergeCell ref="A1:L1"/>
@@ -5958,6 +5965,12 @@
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="C8:G9"/>
     <mergeCell ref="I12:K17"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -5983,20 +5996,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="129" t="s">
-        <v>173</v>
-      </c>
-      <c r="B1" s="129"/>
-      <c r="C1" s="129"/>
-      <c r="D1" s="129"/>
-      <c r="E1" s="129"/>
-      <c r="F1" s="129"/>
-      <c r="G1" s="129"/>
-      <c r="H1" s="129"/>
-      <c r="I1" s="129"/>
-      <c r="J1" s="129"/>
-      <c r="K1" s="129"/>
-      <c r="L1" s="129"/>
+      <c r="A1" s="135" t="s">
+        <v>171</v>
+      </c>
+      <c r="B1" s="135"/>
+      <c r="C1" s="135"/>
+      <c r="D1" s="135"/>
+      <c r="E1" s="135"/>
+      <c r="F1" s="135"/>
+      <c r="G1" s="135"/>
+      <c r="H1" s="135"/>
+      <c r="I1" s="135"/>
+      <c r="J1" s="135"/>
+      <c r="K1" s="135"/>
+      <c r="L1" s="135"/>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="S2" s="7"/>
@@ -6015,35 +6028,35 @@
       <c r="AF2" s="7"/>
     </row>
     <row r="3" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="130" t="s">
+      <c r="A3" s="132" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="130"/>
-      <c r="C3" s="141"/>
-      <c r="D3" s="142"/>
-      <c r="E3" s="142"/>
-      <c r="F3" s="142"/>
-      <c r="G3" s="143"/>
-      <c r="J3" s="130" t="s">
+      <c r="B3" s="132"/>
+      <c r="C3" s="129"/>
+      <c r="D3" s="130"/>
+      <c r="E3" s="130"/>
+      <c r="F3" s="130"/>
+      <c r="G3" s="131"/>
+      <c r="J3" s="132" t="s">
         <v>36</v>
       </c>
-      <c r="K3" s="130"/>
-      <c r="L3" s="130"/>
-      <c r="M3" s="153"/>
-      <c r="N3" s="153"/>
-      <c r="O3" s="153"/>
-      <c r="P3" s="153"/>
-      <c r="Q3" s="153"/>
-      <c r="R3" s="153"/>
-      <c r="S3" s="153"/>
-      <c r="T3" s="153"/>
-      <c r="U3" s="153"/>
-      <c r="V3" s="153"/>
-      <c r="W3" s="153"/>
-      <c r="X3" s="153"/>
-      <c r="Y3" s="153"/>
-      <c r="Z3" s="153"/>
-      <c r="AA3" s="153"/>
+      <c r="K3" s="132"/>
+      <c r="L3" s="132"/>
+      <c r="M3" s="133"/>
+      <c r="N3" s="133"/>
+      <c r="O3" s="133"/>
+      <c r="P3" s="133"/>
+      <c r="Q3" s="133"/>
+      <c r="R3" s="133"/>
+      <c r="S3" s="133"/>
+      <c r="T3" s="133"/>
+      <c r="U3" s="133"/>
+      <c r="V3" s="133"/>
+      <c r="W3" s="133"/>
+      <c r="X3" s="133"/>
+      <c r="Y3" s="133"/>
+      <c r="Z3" s="133"/>
+      <c r="AA3" s="133"/>
       <c r="AB3" s="6"/>
       <c r="AC3" s="6"/>
       <c r="AD3" s="6"/>
@@ -6051,35 +6064,35 @@
       <c r="AF3" s="7"/>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A4" s="130" t="s">
+      <c r="A4" s="132" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="130"/>
-      <c r="C4" s="141"/>
-      <c r="D4" s="142"/>
-      <c r="E4" s="142"/>
-      <c r="F4" s="142"/>
-      <c r="G4" s="143"/>
-      <c r="J4" s="130" t="s">
+      <c r="B4" s="132"/>
+      <c r="C4" s="129"/>
+      <c r="D4" s="130"/>
+      <c r="E4" s="130"/>
+      <c r="F4" s="130"/>
+      <c r="G4" s="131"/>
+      <c r="J4" s="132" t="s">
         <v>35</v>
       </c>
-      <c r="K4" s="130"/>
-      <c r="L4" s="130"/>
-      <c r="M4" s="153"/>
-      <c r="N4" s="153"/>
-      <c r="O4" s="153"/>
-      <c r="P4" s="153"/>
-      <c r="Q4" s="153"/>
-      <c r="R4" s="153"/>
-      <c r="S4" s="153"/>
-      <c r="T4" s="153"/>
-      <c r="U4" s="153"/>
-      <c r="V4" s="153"/>
-      <c r="W4" s="153"/>
-      <c r="X4" s="153"/>
-      <c r="Y4" s="153"/>
-      <c r="Z4" s="153"/>
-      <c r="AA4" s="153"/>
+      <c r="K4" s="132"/>
+      <c r="L4" s="132"/>
+      <c r="M4" s="133"/>
+      <c r="N4" s="133"/>
+      <c r="O4" s="133"/>
+      <c r="P4" s="133"/>
+      <c r="Q4" s="133"/>
+      <c r="R4" s="133"/>
+      <c r="S4" s="133"/>
+      <c r="T4" s="133"/>
+      <c r="U4" s="133"/>
+      <c r="V4" s="133"/>
+      <c r="W4" s="133"/>
+      <c r="X4" s="133"/>
+      <c r="Y4" s="133"/>
+      <c r="Z4" s="133"/>
+      <c r="AA4" s="133"/>
       <c r="AB4" s="6"/>
       <c r="AC4" s="6"/>
       <c r="AD4" s="6"/>
@@ -6088,26 +6101,26 @@
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="I5" s="103"/>
-      <c r="J5" s="140" t="s">
+      <c r="J5" s="136" t="s">
         <v>37</v>
       </c>
-      <c r="K5" s="140"/>
-      <c r="L5" s="140"/>
-      <c r="M5" s="153"/>
-      <c r="N5" s="153"/>
-      <c r="O5" s="153"/>
-      <c r="P5" s="153"/>
-      <c r="Q5" s="153"/>
-      <c r="R5" s="153"/>
-      <c r="S5" s="153"/>
-      <c r="T5" s="153"/>
-      <c r="U5" s="153"/>
-      <c r="V5" s="153"/>
-      <c r="W5" s="153"/>
-      <c r="X5" s="153"/>
-      <c r="Y5" s="153"/>
-      <c r="Z5" s="153"/>
-      <c r="AA5" s="153"/>
+      <c r="K5" s="136"/>
+      <c r="L5" s="136"/>
+      <c r="M5" s="133"/>
+      <c r="N5" s="133"/>
+      <c r="O5" s="133"/>
+      <c r="P5" s="133"/>
+      <c r="Q5" s="133"/>
+      <c r="R5" s="133"/>
+      <c r="S5" s="133"/>
+      <c r="T5" s="133"/>
+      <c r="U5" s="133"/>
+      <c r="V5" s="133"/>
+      <c r="W5" s="133"/>
+      <c r="X5" s="133"/>
+      <c r="Y5" s="133"/>
+      <c r="Z5" s="133"/>
+      <c r="AA5" s="133"/>
       <c r="AB5" s="6"/>
       <c r="AC5" s="6"/>
       <c r="AD5" s="6"/>
@@ -6115,30 +6128,30 @@
       <c r="AF5" s="7"/>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A6" s="130" t="s">
-        <v>156</v>
-      </c>
-      <c r="B6" s="130"/>
-      <c r="C6" s="141"/>
-      <c r="D6" s="142"/>
-      <c r="E6" s="142"/>
-      <c r="F6" s="142"/>
-      <c r="G6" s="143"/>
-      <c r="M6" s="153"/>
-      <c r="N6" s="153"/>
-      <c r="O6" s="153"/>
-      <c r="P6" s="153"/>
-      <c r="Q6" s="153"/>
-      <c r="R6" s="153"/>
-      <c r="S6" s="153"/>
-      <c r="T6" s="153"/>
-      <c r="U6" s="153"/>
-      <c r="V6" s="153"/>
-      <c r="W6" s="153"/>
-      <c r="X6" s="153"/>
-      <c r="Y6" s="153"/>
-      <c r="Z6" s="153"/>
-      <c r="AA6" s="153"/>
+      <c r="A6" s="132" t="s">
+        <v>154</v>
+      </c>
+      <c r="B6" s="132"/>
+      <c r="C6" s="129"/>
+      <c r="D6" s="130"/>
+      <c r="E6" s="130"/>
+      <c r="F6" s="130"/>
+      <c r="G6" s="131"/>
+      <c r="M6" s="133"/>
+      <c r="N6" s="133"/>
+      <c r="O6" s="133"/>
+      <c r="P6" s="133"/>
+      <c r="Q6" s="133"/>
+      <c r="R6" s="133"/>
+      <c r="S6" s="133"/>
+      <c r="T6" s="133"/>
+      <c r="U6" s="133"/>
+      <c r="V6" s="133"/>
+      <c r="W6" s="133"/>
+      <c r="X6" s="133"/>
+      <c r="Y6" s="133"/>
+      <c r="Z6" s="133"/>
+      <c r="AA6" s="133"/>
       <c r="AB6" s="7"/>
       <c r="AC6" s="7"/>
       <c r="AD6" s="7"/>
@@ -6146,30 +6159,30 @@
       <c r="AF6" s="7"/>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A7" s="130" t="s">
+      <c r="A7" s="132" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="130"/>
-      <c r="C7" s="141"/>
-      <c r="D7" s="142"/>
-      <c r="E7" s="142"/>
-      <c r="F7" s="142"/>
-      <c r="G7" s="143"/>
-      <c r="M7" s="153"/>
-      <c r="N7" s="153"/>
-      <c r="O7" s="153"/>
-      <c r="P7" s="153"/>
-      <c r="Q7" s="153"/>
-      <c r="R7" s="153"/>
-      <c r="S7" s="153"/>
-      <c r="T7" s="153"/>
-      <c r="U7" s="153"/>
-      <c r="V7" s="153"/>
-      <c r="W7" s="153"/>
-      <c r="X7" s="153"/>
-      <c r="Y7" s="153"/>
-      <c r="Z7" s="153"/>
-      <c r="AA7" s="153"/>
+      <c r="B7" s="132"/>
+      <c r="C7" s="129"/>
+      <c r="D7" s="130"/>
+      <c r="E7" s="130"/>
+      <c r="F7" s="130"/>
+      <c r="G7" s="131"/>
+      <c r="M7" s="133"/>
+      <c r="N7" s="133"/>
+      <c r="O7" s="133"/>
+      <c r="P7" s="133"/>
+      <c r="Q7" s="133"/>
+      <c r="R7" s="133"/>
+      <c r="S7" s="133"/>
+      <c r="T7" s="133"/>
+      <c r="U7" s="133"/>
+      <c r="V7" s="133"/>
+      <c r="W7" s="133"/>
+      <c r="X7" s="133"/>
+      <c r="Y7" s="133"/>
+      <c r="Z7" s="133"/>
+      <c r="AA7" s="133"/>
       <c r="AB7" s="7"/>
       <c r="AC7" s="7"/>
       <c r="AD7" s="7"/>
@@ -6181,26 +6194,26 @@
       <c r="B8" s="100" t="s">
         <v>99</v>
       </c>
-      <c r="C8" s="144"/>
-      <c r="D8" s="145"/>
-      <c r="E8" s="145"/>
-      <c r="F8" s="145"/>
-      <c r="G8" s="146"/>
-      <c r="M8" s="153"/>
-      <c r="N8" s="153"/>
-      <c r="O8" s="153"/>
-      <c r="P8" s="153"/>
-      <c r="Q8" s="153"/>
-      <c r="R8" s="153"/>
-      <c r="S8" s="153"/>
-      <c r="T8" s="153"/>
-      <c r="U8" s="153"/>
-      <c r="V8" s="153"/>
-      <c r="W8" s="153"/>
-      <c r="X8" s="153"/>
-      <c r="Y8" s="153"/>
-      <c r="Z8" s="153"/>
-      <c r="AA8" s="153"/>
+      <c r="C8" s="137"/>
+      <c r="D8" s="138"/>
+      <c r="E8" s="138"/>
+      <c r="F8" s="138"/>
+      <c r="G8" s="139"/>
+      <c r="M8" s="133"/>
+      <c r="N8" s="133"/>
+      <c r="O8" s="133"/>
+      <c r="P8" s="133"/>
+      <c r="Q8" s="133"/>
+      <c r="R8" s="133"/>
+      <c r="S8" s="133"/>
+      <c r="T8" s="133"/>
+      <c r="U8" s="133"/>
+      <c r="V8" s="133"/>
+      <c r="W8" s="133"/>
+      <c r="X8" s="133"/>
+      <c r="Y8" s="133"/>
+      <c r="Z8" s="133"/>
+      <c r="AA8" s="133"/>
       <c r="AB8" s="7"/>
       <c r="AC8" s="7"/>
       <c r="AD8" s="7"/>
@@ -6210,26 +6223,26 @@
     <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" s="100"/>
       <c r="B9" s="100"/>
-      <c r="C9" s="147"/>
-      <c r="D9" s="148"/>
-      <c r="E9" s="148"/>
-      <c r="F9" s="148"/>
-      <c r="G9" s="149"/>
-      <c r="M9" s="153"/>
-      <c r="N9" s="153"/>
-      <c r="O9" s="153"/>
-      <c r="P9" s="153"/>
-      <c r="Q9" s="153"/>
-      <c r="R9" s="153"/>
-      <c r="S9" s="153"/>
-      <c r="T9" s="153"/>
-      <c r="U9" s="153"/>
-      <c r="V9" s="153"/>
-      <c r="W9" s="153"/>
-      <c r="X9" s="153"/>
-      <c r="Y9" s="153"/>
-      <c r="Z9" s="153"/>
-      <c r="AA9" s="153"/>
+      <c r="C9" s="140"/>
+      <c r="D9" s="141"/>
+      <c r="E9" s="141"/>
+      <c r="F9" s="141"/>
+      <c r="G9" s="142"/>
+      <c r="M9" s="133"/>
+      <c r="N9" s="133"/>
+      <c r="O9" s="133"/>
+      <c r="P9" s="133"/>
+      <c r="Q9" s="133"/>
+      <c r="R9" s="133"/>
+      <c r="S9" s="133"/>
+      <c r="T9" s="133"/>
+      <c r="U9" s="133"/>
+      <c r="V9" s="133"/>
+      <c r="W9" s="133"/>
+      <c r="X9" s="133"/>
+      <c r="Y9" s="133"/>
+      <c r="Z9" s="133"/>
+      <c r="AA9" s="133"/>
       <c r="AB9" s="7"/>
       <c r="AC9" s="7"/>
       <c r="AD9" s="7"/>
@@ -6245,21 +6258,21 @@
       <c r="F10" s="86"/>
       <c r="G10" s="12"/>
       <c r="H10" s="87"/>
-      <c r="M10" s="153"/>
-      <c r="N10" s="153"/>
-      <c r="O10" s="153"/>
-      <c r="P10" s="153"/>
-      <c r="Q10" s="153"/>
-      <c r="R10" s="153"/>
-      <c r="S10" s="153"/>
-      <c r="T10" s="153"/>
-      <c r="U10" s="153"/>
-      <c r="V10" s="153"/>
-      <c r="W10" s="153"/>
-      <c r="X10" s="153"/>
-      <c r="Y10" s="153"/>
-      <c r="Z10" s="153"/>
-      <c r="AA10" s="153"/>
+      <c r="M10" s="133"/>
+      <c r="N10" s="133"/>
+      <c r="O10" s="133"/>
+      <c r="P10" s="133"/>
+      <c r="Q10" s="133"/>
+      <c r="R10" s="133"/>
+      <c r="S10" s="133"/>
+      <c r="T10" s="133"/>
+      <c r="U10" s="133"/>
+      <c r="V10" s="133"/>
+      <c r="W10" s="133"/>
+      <c r="X10" s="133"/>
+      <c r="Y10" s="133"/>
+      <c r="Z10" s="133"/>
+      <c r="AA10" s="133"/>
       <c r="AB10" s="7"/>
       <c r="AC10" s="7"/>
       <c r="AD10" s="7"/>
@@ -6279,21 +6292,21 @@
       <c r="J11" s="87"/>
       <c r="K11" s="87"/>
       <c r="L11" s="87"/>
-      <c r="M11" s="153"/>
-      <c r="N11" s="153"/>
-      <c r="O11" s="153"/>
-      <c r="P11" s="153"/>
-      <c r="Q11" s="153"/>
-      <c r="R11" s="153"/>
-      <c r="S11" s="153"/>
-      <c r="T11" s="153"/>
-      <c r="U11" s="153"/>
-      <c r="V11" s="153"/>
-      <c r="W11" s="153"/>
-      <c r="X11" s="153"/>
-      <c r="Y11" s="153"/>
-      <c r="Z11" s="153"/>
-      <c r="AA11" s="153"/>
+      <c r="M11" s="133"/>
+      <c r="N11" s="133"/>
+      <c r="O11" s="133"/>
+      <c r="P11" s="133"/>
+      <c r="Q11" s="133"/>
+      <c r="R11" s="133"/>
+      <c r="S11" s="133"/>
+      <c r="T11" s="133"/>
+      <c r="U11" s="133"/>
+      <c r="V11" s="133"/>
+      <c r="W11" s="133"/>
+      <c r="X11" s="133"/>
+      <c r="Y11" s="133"/>
+      <c r="Z11" s="133"/>
+      <c r="AA11" s="133"/>
       <c r="AB11" s="7"/>
       <c r="AC11" s="7"/>
       <c r="AD11" s="7"/>
@@ -6303,33 +6316,33 @@
     <row r="12" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="100"/>
       <c r="B12" s="86"/>
-      <c r="C12" s="158" t="s">
-        <v>160</v>
-      </c>
-      <c r="D12" s="158"/>
-      <c r="E12" s="158"/>
-      <c r="F12" s="158"/>
-      <c r="G12" s="158"/>
-      <c r="H12" s="158"/>
-      <c r="I12" s="158"/>
-      <c r="J12" s="158"/>
-      <c r="K12" s="158"/>
+      <c r="C12" s="145" t="s">
+        <v>158</v>
+      </c>
+      <c r="D12" s="145"/>
+      <c r="E12" s="145"/>
+      <c r="F12" s="145"/>
+      <c r="G12" s="145"/>
+      <c r="H12" s="145"/>
+      <c r="I12" s="145"/>
+      <c r="J12" s="145"/>
+      <c r="K12" s="145"/>
       <c r="L12" s="87"/>
-      <c r="M12" s="153"/>
-      <c r="N12" s="153"/>
-      <c r="O12" s="153"/>
-      <c r="P12" s="153"/>
-      <c r="Q12" s="153"/>
-      <c r="R12" s="153"/>
-      <c r="S12" s="153"/>
-      <c r="T12" s="153"/>
-      <c r="U12" s="153"/>
-      <c r="V12" s="153"/>
-      <c r="W12" s="153"/>
-      <c r="X12" s="153"/>
-      <c r="Y12" s="153"/>
-      <c r="Z12" s="153"/>
-      <c r="AA12" s="153"/>
+      <c r="M12" s="133"/>
+      <c r="N12" s="133"/>
+      <c r="O12" s="133"/>
+      <c r="P12" s="133"/>
+      <c r="Q12" s="133"/>
+      <c r="R12" s="133"/>
+      <c r="S12" s="133"/>
+      <c r="T12" s="133"/>
+      <c r="U12" s="133"/>
+      <c r="V12" s="133"/>
+      <c r="W12" s="133"/>
+      <c r="X12" s="133"/>
+      <c r="Y12" s="133"/>
+      <c r="Z12" s="133"/>
+      <c r="AA12" s="133"/>
       <c r="AB12" s="7"/>
       <c r="AC12" s="7"/>
       <c r="AD12" s="7"/>
@@ -6339,31 +6352,31 @@
     <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" s="100"/>
       <c r="B13" s="86"/>
-      <c r="C13" s="158"/>
-      <c r="D13" s="158"/>
-      <c r="E13" s="158"/>
-      <c r="F13" s="158"/>
-      <c r="G13" s="158"/>
-      <c r="H13" s="158"/>
-      <c r="I13" s="158"/>
-      <c r="J13" s="158"/>
-      <c r="K13" s="158"/>
+      <c r="C13" s="145"/>
+      <c r="D13" s="145"/>
+      <c r="E13" s="145"/>
+      <c r="F13" s="145"/>
+      <c r="G13" s="145"/>
+      <c r="H13" s="145"/>
+      <c r="I13" s="145"/>
+      <c r="J13" s="145"/>
+      <c r="K13" s="145"/>
       <c r="L13" s="87"/>
-      <c r="M13" s="153"/>
-      <c r="N13" s="153"/>
-      <c r="O13" s="153"/>
-      <c r="P13" s="153"/>
-      <c r="Q13" s="153"/>
-      <c r="R13" s="153"/>
-      <c r="S13" s="153"/>
-      <c r="T13" s="153"/>
-      <c r="U13" s="153"/>
-      <c r="V13" s="153"/>
-      <c r="W13" s="153"/>
-      <c r="X13" s="153"/>
-      <c r="Y13" s="153"/>
-      <c r="Z13" s="153"/>
-      <c r="AA13" s="153"/>
+      <c r="M13" s="133"/>
+      <c r="N13" s="133"/>
+      <c r="O13" s="133"/>
+      <c r="P13" s="133"/>
+      <c r="Q13" s="133"/>
+      <c r="R13" s="133"/>
+      <c r="S13" s="133"/>
+      <c r="T13" s="133"/>
+      <c r="U13" s="133"/>
+      <c r="V13" s="133"/>
+      <c r="W13" s="133"/>
+      <c r="X13" s="133"/>
+      <c r="Y13" s="133"/>
+      <c r="Z13" s="133"/>
+      <c r="AA13" s="133"/>
       <c r="AB13" s="7"/>
       <c r="AC13" s="7"/>
       <c r="AD13" s="7"/>
@@ -6373,31 +6386,31 @@
     <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14" s="100"/>
       <c r="B14" s="86"/>
-      <c r="C14" s="158"/>
-      <c r="D14" s="158"/>
-      <c r="E14" s="158"/>
-      <c r="F14" s="158"/>
-      <c r="G14" s="158"/>
-      <c r="H14" s="158"/>
-      <c r="I14" s="158"/>
-      <c r="J14" s="158"/>
-      <c r="K14" s="158"/>
+      <c r="C14" s="145"/>
+      <c r="D14" s="145"/>
+      <c r="E14" s="145"/>
+      <c r="F14" s="145"/>
+      <c r="G14" s="145"/>
+      <c r="H14" s="145"/>
+      <c r="I14" s="145"/>
+      <c r="J14" s="145"/>
+      <c r="K14" s="145"/>
       <c r="L14" s="87"/>
-      <c r="M14" s="153"/>
-      <c r="N14" s="153"/>
-      <c r="O14" s="153"/>
-      <c r="P14" s="153"/>
-      <c r="Q14" s="153"/>
-      <c r="R14" s="153"/>
-      <c r="S14" s="153"/>
-      <c r="T14" s="153"/>
-      <c r="U14" s="153"/>
-      <c r="V14" s="153"/>
-      <c r="W14" s="153"/>
-      <c r="X14" s="153"/>
-      <c r="Y14" s="153"/>
-      <c r="Z14" s="153"/>
-      <c r="AA14" s="153"/>
+      <c r="M14" s="133"/>
+      <c r="N14" s="133"/>
+      <c r="O14" s="133"/>
+      <c r="P14" s="133"/>
+      <c r="Q14" s="133"/>
+      <c r="R14" s="133"/>
+      <c r="S14" s="133"/>
+      <c r="T14" s="133"/>
+      <c r="U14" s="133"/>
+      <c r="V14" s="133"/>
+      <c r="W14" s="133"/>
+      <c r="X14" s="133"/>
+      <c r="Y14" s="133"/>
+      <c r="Z14" s="133"/>
+      <c r="AA14" s="133"/>
       <c r="AB14" s="7"/>
       <c r="AC14" s="7"/>
       <c r="AD14" s="7"/>
@@ -6506,7 +6519,7 @@
     </row>
     <row r="18" spans="1:32" ht="21" x14ac:dyDescent="0.35">
       <c r="A18" s="92" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B18" s="103"/>
       <c r="C18" s="103"/>
@@ -6514,27 +6527,27 @@
       <c r="E18" s="95"/>
       <c r="F18" s="87"/>
       <c r="G18" s="86" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H18" s="88"/>
       <c r="I18" s="86"/>
       <c r="J18" s="12"/>
       <c r="K18" s="87"/>
       <c r="L18" s="86" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="M18" s="90"/>
       <c r="N18" s="85"/>
       <c r="O18" s="85"/>
       <c r="P18" s="85"/>
       <c r="Q18" s="86" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="R18" s="89"/>
       <c r="S18" s="85"/>
       <c r="T18" s="85"/>
       <c r="U18" s="86" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="V18" s="91"/>
       <c r="W18" s="65"/>
@@ -6602,232 +6615,232 @@
       <c r="AF20" s="7"/>
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A21" s="130" t="s">
+      <c r="A21" s="132" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="130"/>
-      <c r="C21" s="131" t="s">
-        <v>164</v>
-      </c>
-      <c r="D21" s="132"/>
-      <c r="E21" s="132"/>
-      <c r="F21" s="132"/>
-      <c r="G21" s="132"/>
-      <c r="H21" s="132"/>
-      <c r="I21" s="132"/>
-      <c r="J21" s="132"/>
-      <c r="K21" s="132"/>
-      <c r="L21" s="132"/>
-      <c r="M21" s="132"/>
-      <c r="N21" s="132"/>
-      <c r="O21" s="132"/>
-      <c r="P21" s="132"/>
-      <c r="Q21" s="132"/>
-      <c r="R21" s="132"/>
-      <c r="S21" s="132"/>
-      <c r="T21" s="132"/>
-      <c r="U21" s="132"/>
-      <c r="V21" s="132"/>
-      <c r="W21" s="132"/>
-      <c r="X21" s="132"/>
-      <c r="Y21" s="132"/>
-      <c r="Z21" s="132"/>
-      <c r="AA21" s="133"/>
+      <c r="B21" s="132"/>
+      <c r="C21" s="149" t="s">
+        <v>162</v>
+      </c>
+      <c r="D21" s="150"/>
+      <c r="E21" s="150"/>
+      <c r="F21" s="150"/>
+      <c r="G21" s="150"/>
+      <c r="H21" s="150"/>
+      <c r="I21" s="150"/>
+      <c r="J21" s="150"/>
+      <c r="K21" s="150"/>
+      <c r="L21" s="150"/>
+      <c r="M21" s="150"/>
+      <c r="N21" s="150"/>
+      <c r="O21" s="150"/>
+      <c r="P21" s="150"/>
+      <c r="Q21" s="150"/>
+      <c r="R21" s="150"/>
+      <c r="S21" s="150"/>
+      <c r="T21" s="150"/>
+      <c r="U21" s="150"/>
+      <c r="V21" s="150"/>
+      <c r="W21" s="150"/>
+      <c r="X21" s="150"/>
+      <c r="Y21" s="150"/>
+      <c r="Z21" s="150"/>
+      <c r="AA21" s="151"/>
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A22" s="100"/>
       <c r="B22" s="100"/>
-      <c r="C22" s="134" t="s">
-        <v>159</v>
-      </c>
-      <c r="D22" s="135"/>
-      <c r="E22" s="135"/>
-      <c r="F22" s="135"/>
-      <c r="G22" s="135"/>
-      <c r="H22" s="135"/>
-      <c r="I22" s="135"/>
-      <c r="J22" s="135"/>
-      <c r="K22" s="135"/>
-      <c r="L22" s="135"/>
-      <c r="M22" s="135"/>
-      <c r="N22" s="135"/>
-      <c r="O22" s="135"/>
-      <c r="P22" s="135"/>
-      <c r="Q22" s="135"/>
-      <c r="R22" s="135"/>
-      <c r="S22" s="135"/>
-      <c r="T22" s="135"/>
-      <c r="U22" s="135"/>
-      <c r="V22" s="135"/>
-      <c r="W22" s="135"/>
-      <c r="X22" s="135"/>
-      <c r="Y22" s="135"/>
-      <c r="Z22" s="135"/>
-      <c r="AA22" s="136"/>
+      <c r="C22" s="152" t="s">
+        <v>157</v>
+      </c>
+      <c r="D22" s="153"/>
+      <c r="E22" s="153"/>
+      <c r="F22" s="153"/>
+      <c r="G22" s="153"/>
+      <c r="H22" s="153"/>
+      <c r="I22" s="153"/>
+      <c r="J22" s="153"/>
+      <c r="K22" s="153"/>
+      <c r="L22" s="153"/>
+      <c r="M22" s="153"/>
+      <c r="N22" s="153"/>
+      <c r="O22" s="153"/>
+      <c r="P22" s="153"/>
+      <c r="Q22" s="153"/>
+      <c r="R22" s="153"/>
+      <c r="S22" s="153"/>
+      <c r="T22" s="153"/>
+      <c r="U22" s="153"/>
+      <c r="V22" s="153"/>
+      <c r="W22" s="153"/>
+      <c r="X22" s="153"/>
+      <c r="Y22" s="153"/>
+      <c r="Z22" s="153"/>
+      <c r="AA22" s="154"/>
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A23" s="100"/>
       <c r="B23" s="100"/>
-      <c r="C23" s="134" t="s">
-        <v>153</v>
-      </c>
-      <c r="D23" s="135"/>
-      <c r="E23" s="135"/>
-      <c r="F23" s="135"/>
-      <c r="G23" s="135"/>
-      <c r="H23" s="135"/>
-      <c r="I23" s="135"/>
-      <c r="J23" s="135"/>
-      <c r="K23" s="135"/>
-      <c r="L23" s="135"/>
-      <c r="M23" s="135"/>
-      <c r="N23" s="135"/>
-      <c r="O23" s="135"/>
-      <c r="P23" s="135"/>
-      <c r="Q23" s="135"/>
-      <c r="R23" s="135"/>
-      <c r="S23" s="135"/>
-      <c r="T23" s="135"/>
-      <c r="U23" s="135"/>
-      <c r="V23" s="135"/>
-      <c r="W23" s="135"/>
-      <c r="X23" s="135"/>
-      <c r="Y23" s="135"/>
-      <c r="Z23" s="135"/>
-      <c r="AA23" s="136"/>
+      <c r="C23" s="152" t="s">
+        <v>151</v>
+      </c>
+      <c r="D23" s="153"/>
+      <c r="E23" s="153"/>
+      <c r="F23" s="153"/>
+      <c r="G23" s="153"/>
+      <c r="H23" s="153"/>
+      <c r="I23" s="153"/>
+      <c r="J23" s="153"/>
+      <c r="K23" s="153"/>
+      <c r="L23" s="153"/>
+      <c r="M23" s="153"/>
+      <c r="N23" s="153"/>
+      <c r="O23" s="153"/>
+      <c r="P23" s="153"/>
+      <c r="Q23" s="153"/>
+      <c r="R23" s="153"/>
+      <c r="S23" s="153"/>
+      <c r="T23" s="153"/>
+      <c r="U23" s="153"/>
+      <c r="V23" s="153"/>
+      <c r="W23" s="153"/>
+      <c r="X23" s="153"/>
+      <c r="Y23" s="153"/>
+      <c r="Z23" s="153"/>
+      <c r="AA23" s="154"/>
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A24" s="100"/>
       <c r="B24" s="100"/>
-      <c r="C24" s="134" t="s">
-        <v>154</v>
-      </c>
-      <c r="D24" s="135"/>
-      <c r="E24" s="135"/>
-      <c r="F24" s="135"/>
-      <c r="G24" s="135"/>
-      <c r="H24" s="135"/>
-      <c r="I24" s="135"/>
-      <c r="J24" s="135"/>
-      <c r="K24" s="135"/>
-      <c r="L24" s="135"/>
-      <c r="M24" s="135"/>
-      <c r="N24" s="135"/>
-      <c r="O24" s="135"/>
-      <c r="P24" s="135"/>
-      <c r="Q24" s="135"/>
-      <c r="R24" s="135"/>
-      <c r="S24" s="135"/>
-      <c r="T24" s="135"/>
-      <c r="U24" s="135"/>
-      <c r="V24" s="135"/>
-      <c r="W24" s="135"/>
-      <c r="X24" s="135"/>
-      <c r="Y24" s="135"/>
-      <c r="Z24" s="135"/>
-      <c r="AA24" s="136"/>
+      <c r="C24" s="152" t="s">
+        <v>152</v>
+      </c>
+      <c r="D24" s="153"/>
+      <c r="E24" s="153"/>
+      <c r="F24" s="153"/>
+      <c r="G24" s="153"/>
+      <c r="H24" s="153"/>
+      <c r="I24" s="153"/>
+      <c r="J24" s="153"/>
+      <c r="K24" s="153"/>
+      <c r="L24" s="153"/>
+      <c r="M24" s="153"/>
+      <c r="N24" s="153"/>
+      <c r="O24" s="153"/>
+      <c r="P24" s="153"/>
+      <c r="Q24" s="153"/>
+      <c r="R24" s="153"/>
+      <c r="S24" s="153"/>
+      <c r="T24" s="153"/>
+      <c r="U24" s="153"/>
+      <c r="V24" s="153"/>
+      <c r="W24" s="153"/>
+      <c r="X24" s="153"/>
+      <c r="Y24" s="153"/>
+      <c r="Z24" s="153"/>
+      <c r="AA24" s="154"/>
     </row>
     <row r="25" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="100"/>
       <c r="B25" s="100"/>
-      <c r="C25" s="137" t="s">
-        <v>155</v>
-      </c>
-      <c r="D25" s="138"/>
-      <c r="E25" s="138"/>
-      <c r="F25" s="138"/>
-      <c r="G25" s="138"/>
-      <c r="H25" s="138"/>
-      <c r="I25" s="138"/>
-      <c r="J25" s="138"/>
-      <c r="K25" s="138"/>
-      <c r="L25" s="138"/>
-      <c r="M25" s="138"/>
-      <c r="N25" s="138"/>
-      <c r="O25" s="138"/>
-      <c r="P25" s="138"/>
-      <c r="Q25" s="138"/>
-      <c r="R25" s="138"/>
-      <c r="S25" s="138"/>
-      <c r="T25" s="138"/>
-      <c r="U25" s="138"/>
-      <c r="V25" s="138"/>
-      <c r="W25" s="138"/>
-      <c r="X25" s="138"/>
-      <c r="Y25" s="138"/>
-      <c r="Z25" s="138"/>
-      <c r="AA25" s="139"/>
+      <c r="C25" s="155" t="s">
+        <v>153</v>
+      </c>
+      <c r="D25" s="156"/>
+      <c r="E25" s="156"/>
+      <c r="F25" s="156"/>
+      <c r="G25" s="156"/>
+      <c r="H25" s="156"/>
+      <c r="I25" s="156"/>
+      <c r="J25" s="156"/>
+      <c r="K25" s="156"/>
+      <c r="L25" s="156"/>
+      <c r="M25" s="156"/>
+      <c r="N25" s="156"/>
+      <c r="O25" s="156"/>
+      <c r="P25" s="156"/>
+      <c r="Q25" s="156"/>
+      <c r="R25" s="156"/>
+      <c r="S25" s="156"/>
+      <c r="T25" s="156"/>
+      <c r="U25" s="156"/>
+      <c r="V25" s="156"/>
+      <c r="W25" s="156"/>
+      <c r="X25" s="156"/>
+      <c r="Y25" s="156"/>
+      <c r="Z25" s="156"/>
+      <c r="AA25" s="157"/>
     </row>
     <row r="27" spans="1:32" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="152" t="s">
+      <c r="A27" s="158" t="s">
         <v>43</v>
       </c>
-      <c r="B27" s="152"/>
-      <c r="C27" s="152"/>
-      <c r="D27" s="152"/>
-      <c r="E27" s="152"/>
-      <c r="F27" s="152"/>
-      <c r="G27" s="152"/>
-      <c r="H27" s="152"/>
-      <c r="I27" s="152"/>
-      <c r="J27" s="152"/>
-      <c r="K27" s="152"/>
-      <c r="L27" s="152"/>
-      <c r="M27" s="152"/>
-      <c r="N27" s="152"/>
-      <c r="O27" s="152"/>
-      <c r="P27" s="152"/>
-      <c r="Q27" s="152"/>
-      <c r="R27" s="152"/>
-      <c r="S27" s="152"/>
-      <c r="T27" s="152"/>
-      <c r="U27" s="152"/>
-      <c r="V27" s="152"/>
-      <c r="W27" s="152"/>
-      <c r="X27" s="152"/>
-      <c r="Y27" s="152"/>
-      <c r="Z27" s="152"/>
-      <c r="AA27" s="152"/>
+      <c r="B27" s="158"/>
+      <c r="C27" s="158"/>
+      <c r="D27" s="158"/>
+      <c r="E27" s="158"/>
+      <c r="F27" s="158"/>
+      <c r="G27" s="158"/>
+      <c r="H27" s="158"/>
+      <c r="I27" s="158"/>
+      <c r="J27" s="158"/>
+      <c r="K27" s="158"/>
+      <c r="L27" s="158"/>
+      <c r="M27" s="158"/>
+      <c r="N27" s="158"/>
+      <c r="O27" s="158"/>
+      <c r="P27" s="158"/>
+      <c r="Q27" s="158"/>
+      <c r="R27" s="158"/>
+      <c r="S27" s="158"/>
+      <c r="T27" s="158"/>
+      <c r="U27" s="158"/>
+      <c r="V27" s="158"/>
+      <c r="W27" s="158"/>
+      <c r="X27" s="158"/>
+      <c r="Y27" s="158"/>
+      <c r="Z27" s="158"/>
+      <c r="AA27" s="158"/>
     </row>
     <row r="28" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B28" s="155" t="s">
-        <v>165</v>
-      </c>
-      <c r="C28" s="155"/>
-      <c r="D28" s="155"/>
-      <c r="E28" s="155"/>
-      <c r="F28" s="155"/>
-      <c r="G28" s="155"/>
-      <c r="H28" s="156" t="s">
-        <v>166</v>
-      </c>
-      <c r="I28" s="157"/>
-      <c r="J28" s="157"/>
-      <c r="K28" s="157"/>
-      <c r="L28" s="157"/>
-      <c r="M28" s="157"/>
+      <c r="B28" s="146" t="s">
+        <v>163</v>
+      </c>
+      <c r="C28" s="146"/>
+      <c r="D28" s="146"/>
+      <c r="E28" s="146"/>
+      <c r="F28" s="146"/>
+      <c r="G28" s="146"/>
+      <c r="H28" s="147" t="s">
+        <v>164</v>
+      </c>
+      <c r="I28" s="148"/>
+      <c r="J28" s="148"/>
+      <c r="K28" s="148"/>
+      <c r="L28" s="148"/>
+      <c r="M28" s="148"/>
       <c r="O28" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="P28" s="155" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q28" s="155"/>
-      <c r="R28" s="155"/>
-      <c r="S28" s="155"/>
-      <c r="T28" s="155"/>
-      <c r="U28" s="155"/>
-      <c r="V28" s="156" t="s">
-        <v>170</v>
-      </c>
-      <c r="W28" s="157"/>
-      <c r="X28" s="157"/>
-      <c r="Y28" s="157"/>
-      <c r="Z28" s="157"/>
-      <c r="AA28" s="157"/>
+      <c r="P28" s="146" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q28" s="146"/>
+      <c r="R28" s="146"/>
+      <c r="S28" s="146"/>
+      <c r="T28" s="146"/>
+      <c r="U28" s="146"/>
+      <c r="V28" s="147" t="s">
+        <v>168</v>
+      </c>
+      <c r="W28" s="148"/>
+      <c r="X28" s="148"/>
+      <c r="Y28" s="148"/>
+      <c r="Z28" s="148"/>
+      <c r="AA28" s="148"/>
     </row>
     <row r="29" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
@@ -6920,7 +6933,7 @@
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
       <c r="H30" s="121" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
@@ -6960,7 +6973,7 @@
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
       <c r="H31" s="121" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
@@ -7077,7 +7090,7 @@
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
       <c r="G34" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H34" s="121"/>
       <c r="I34" s="3"/>
@@ -7117,7 +7130,7 @@
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
       <c r="G35" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H35" s="121"/>
       <c r="I35" s="3"/>
@@ -7155,7 +7168,7 @@
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H36" s="121"/>
       <c r="I36" s="3"/>
@@ -7262,75 +7275,75 @@
       <c r="J40" s="19"/>
     </row>
     <row r="43" spans="1:27" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A43" s="152" t="s">
+      <c r="A43" s="158" t="s">
         <v>46</v>
       </c>
-      <c r="B43" s="152"/>
-      <c r="C43" s="152"/>
-      <c r="D43" s="152"/>
-      <c r="E43" s="152"/>
-      <c r="F43" s="152"/>
-      <c r="G43" s="152"/>
-      <c r="H43" s="152"/>
-      <c r="I43" s="152"/>
-      <c r="J43" s="152"/>
-      <c r="K43" s="152"/>
-      <c r="L43" s="152"/>
-      <c r="M43" s="152"/>
-      <c r="N43" s="152"/>
-      <c r="O43" s="152"/>
-      <c r="P43" s="152"/>
-      <c r="Q43" s="152"/>
-      <c r="R43" s="152"/>
-      <c r="S43" s="152"/>
-      <c r="T43" s="152"/>
-      <c r="U43" s="152"/>
-      <c r="V43" s="152"/>
-      <c r="W43" s="152"/>
-      <c r="X43" s="152"/>
-      <c r="Y43" s="152"/>
-      <c r="Z43" s="152"/>
-      <c r="AA43" s="152"/>
+      <c r="B43" s="158"/>
+      <c r="C43" s="158"/>
+      <c r="D43" s="158"/>
+      <c r="E43" s="158"/>
+      <c r="F43" s="158"/>
+      <c r="G43" s="158"/>
+      <c r="H43" s="158"/>
+      <c r="I43" s="158"/>
+      <c r="J43" s="158"/>
+      <c r="K43" s="158"/>
+      <c r="L43" s="158"/>
+      <c r="M43" s="158"/>
+      <c r="N43" s="158"/>
+      <c r="O43" s="158"/>
+      <c r="P43" s="158"/>
+      <c r="Q43" s="158"/>
+      <c r="R43" s="158"/>
+      <c r="S43" s="158"/>
+      <c r="T43" s="158"/>
+      <c r="U43" s="158"/>
+      <c r="V43" s="158"/>
+      <c r="W43" s="158"/>
+      <c r="X43" s="158"/>
+      <c r="Y43" s="158"/>
+      <c r="Z43" s="158"/>
+      <c r="AA43" s="158"/>
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B44" s="155" t="s">
-        <v>165</v>
-      </c>
-      <c r="C44" s="155"/>
-      <c r="D44" s="155"/>
-      <c r="E44" s="155"/>
-      <c r="F44" s="155"/>
-      <c r="G44" s="155"/>
-      <c r="H44" s="156" t="s">
-        <v>166</v>
-      </c>
-      <c r="I44" s="157"/>
-      <c r="J44" s="157"/>
-      <c r="K44" s="157"/>
-      <c r="L44" s="157"/>
-      <c r="M44" s="157"/>
+      <c r="B44" s="146" t="s">
+        <v>163</v>
+      </c>
+      <c r="C44" s="146"/>
+      <c r="D44" s="146"/>
+      <c r="E44" s="146"/>
+      <c r="F44" s="146"/>
+      <c r="G44" s="146"/>
+      <c r="H44" s="147" t="s">
+        <v>164</v>
+      </c>
+      <c r="I44" s="148"/>
+      <c r="J44" s="148"/>
+      <c r="K44" s="148"/>
+      <c r="L44" s="148"/>
+      <c r="M44" s="148"/>
       <c r="O44" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="P44" s="155" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q44" s="155"/>
-      <c r="R44" s="155"/>
-      <c r="S44" s="155"/>
-      <c r="T44" s="155"/>
-      <c r="U44" s="155"/>
-      <c r="V44" s="156" t="s">
-        <v>170</v>
-      </c>
-      <c r="W44" s="157"/>
-      <c r="X44" s="157"/>
-      <c r="Y44" s="157"/>
-      <c r="Z44" s="157"/>
-      <c r="AA44" s="157"/>
+      <c r="P44" s="146" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q44" s="146"/>
+      <c r="R44" s="146"/>
+      <c r="S44" s="146"/>
+      <c r="T44" s="146"/>
+      <c r="U44" s="146"/>
+      <c r="V44" s="147" t="s">
+        <v>168</v>
+      </c>
+      <c r="W44" s="148"/>
+      <c r="X44" s="148"/>
+      <c r="Y44" s="148"/>
+      <c r="Z44" s="148"/>
+      <c r="AA44" s="148"/>
     </row>
     <row r="45" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
@@ -7690,6 +7703,24 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="B44:G44"/>
+    <mergeCell ref="H44:M44"/>
+    <mergeCell ref="P44:U44"/>
+    <mergeCell ref="V44:AA44"/>
+    <mergeCell ref="A27:AA27"/>
+    <mergeCell ref="A43:AA43"/>
+    <mergeCell ref="C12:K14"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="H28:M28"/>
+    <mergeCell ref="P28:U28"/>
+    <mergeCell ref="V28:AA28"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:AA21"/>
+    <mergeCell ref="C22:AA22"/>
+    <mergeCell ref="C23:AA23"/>
+    <mergeCell ref="C24:AA24"/>
+    <mergeCell ref="C25:AA25"/>
+    <mergeCell ref="M3:AA14"/>
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C7:G7"/>
@@ -7703,24 +7734,6 @@
     <mergeCell ref="J4:L4"/>
     <mergeCell ref="J5:L5"/>
     <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C12:K14"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="H28:M28"/>
-    <mergeCell ref="P28:U28"/>
-    <mergeCell ref="V28:AA28"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:AA21"/>
-    <mergeCell ref="C22:AA22"/>
-    <mergeCell ref="C23:AA23"/>
-    <mergeCell ref="C24:AA24"/>
-    <mergeCell ref="C25:AA25"/>
-    <mergeCell ref="M3:AA14"/>
-    <mergeCell ref="B44:G44"/>
-    <mergeCell ref="H44:M44"/>
-    <mergeCell ref="P44:U44"/>
-    <mergeCell ref="V44:AA44"/>
-    <mergeCell ref="A27:AA27"/>
-    <mergeCell ref="A43:AA43"/>
   </mergeCells>
   <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7745,20 +7758,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="129" t="s">
-        <v>173</v>
-      </c>
-      <c r="B1" s="129"/>
-      <c r="C1" s="129"/>
-      <c r="D1" s="129"/>
-      <c r="E1" s="129"/>
-      <c r="F1" s="129"/>
-      <c r="G1" s="129"/>
-      <c r="H1" s="129"/>
-      <c r="I1" s="129"/>
-      <c r="J1" s="129"/>
-      <c r="K1" s="129"/>
-      <c r="L1" s="129"/>
+      <c r="A1" s="135" t="s">
+        <v>171</v>
+      </c>
+      <c r="B1" s="135"/>
+      <c r="C1" s="135"/>
+      <c r="D1" s="135"/>
+      <c r="E1" s="135"/>
+      <c r="F1" s="135"/>
+      <c r="G1" s="135"/>
+      <c r="H1" s="135"/>
+      <c r="I1" s="135"/>
+      <c r="J1" s="135"/>
+      <c r="K1" s="135"/>
+      <c r="L1" s="135"/>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="S2" s="7"/>
@@ -7777,35 +7790,35 @@
       <c r="AF2" s="7"/>
     </row>
     <row r="3" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="130" t="s">
+      <c r="A3" s="132" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="130"/>
-      <c r="C3" s="141"/>
-      <c r="D3" s="142"/>
-      <c r="E3" s="142"/>
-      <c r="F3" s="142"/>
-      <c r="G3" s="143"/>
-      <c r="J3" s="130" t="s">
+      <c r="B3" s="132"/>
+      <c r="C3" s="129"/>
+      <c r="D3" s="130"/>
+      <c r="E3" s="130"/>
+      <c r="F3" s="130"/>
+      <c r="G3" s="131"/>
+      <c r="J3" s="132" t="s">
         <v>36</v>
       </c>
-      <c r="K3" s="130"/>
-      <c r="L3" s="130"/>
-      <c r="M3" s="153"/>
-      <c r="N3" s="153"/>
-      <c r="O3" s="153"/>
-      <c r="P3" s="153"/>
-      <c r="Q3" s="153"/>
-      <c r="R3" s="153"/>
-      <c r="S3" s="153"/>
-      <c r="T3" s="153"/>
-      <c r="U3" s="153"/>
-      <c r="V3" s="153"/>
-      <c r="W3" s="153"/>
-      <c r="X3" s="153"/>
-      <c r="Y3" s="153"/>
-      <c r="Z3" s="153"/>
-      <c r="AA3" s="153"/>
+      <c r="K3" s="132"/>
+      <c r="L3" s="132"/>
+      <c r="M3" s="133"/>
+      <c r="N3" s="133"/>
+      <c r="O3" s="133"/>
+      <c r="P3" s="133"/>
+      <c r="Q3" s="133"/>
+      <c r="R3" s="133"/>
+      <c r="S3" s="133"/>
+      <c r="T3" s="133"/>
+      <c r="U3" s="133"/>
+      <c r="V3" s="133"/>
+      <c r="W3" s="133"/>
+      <c r="X3" s="133"/>
+      <c r="Y3" s="133"/>
+      <c r="Z3" s="133"/>
+      <c r="AA3" s="133"/>
       <c r="AB3" s="6"/>
       <c r="AC3" s="6"/>
       <c r="AD3" s="6"/>
@@ -7813,35 +7826,35 @@
       <c r="AF3" s="7"/>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A4" s="130" t="s">
+      <c r="A4" s="132" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="130"/>
-      <c r="C4" s="141"/>
-      <c r="D4" s="142"/>
-      <c r="E4" s="142"/>
-      <c r="F4" s="142"/>
-      <c r="G4" s="143"/>
-      <c r="J4" s="130" t="s">
+      <c r="B4" s="132"/>
+      <c r="C4" s="129"/>
+      <c r="D4" s="130"/>
+      <c r="E4" s="130"/>
+      <c r="F4" s="130"/>
+      <c r="G4" s="131"/>
+      <c r="J4" s="132" t="s">
         <v>35</v>
       </c>
-      <c r="K4" s="130"/>
-      <c r="L4" s="130"/>
-      <c r="M4" s="153"/>
-      <c r="N4" s="153"/>
-      <c r="O4" s="153"/>
-      <c r="P4" s="153"/>
-      <c r="Q4" s="153"/>
-      <c r="R4" s="153"/>
-      <c r="S4" s="153"/>
-      <c r="T4" s="153"/>
-      <c r="U4" s="153"/>
-      <c r="V4" s="153"/>
-      <c r="W4" s="153"/>
-      <c r="X4" s="153"/>
-      <c r="Y4" s="153"/>
-      <c r="Z4" s="153"/>
-      <c r="AA4" s="153"/>
+      <c r="K4" s="132"/>
+      <c r="L4" s="132"/>
+      <c r="M4" s="133"/>
+      <c r="N4" s="133"/>
+      <c r="O4" s="133"/>
+      <c r="P4" s="133"/>
+      <c r="Q4" s="133"/>
+      <c r="R4" s="133"/>
+      <c r="S4" s="133"/>
+      <c r="T4" s="133"/>
+      <c r="U4" s="133"/>
+      <c r="V4" s="133"/>
+      <c r="W4" s="133"/>
+      <c r="X4" s="133"/>
+      <c r="Y4" s="133"/>
+      <c r="Z4" s="133"/>
+      <c r="AA4" s="133"/>
       <c r="AB4" s="6"/>
       <c r="AC4" s="6"/>
       <c r="AD4" s="6"/>
@@ -7850,26 +7863,26 @@
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="I5"/>
-      <c r="J5" s="140" t="s">
+      <c r="J5" s="136" t="s">
         <v>37</v>
       </c>
-      <c r="K5" s="140"/>
-      <c r="L5" s="140"/>
-      <c r="M5" s="153"/>
-      <c r="N5" s="153"/>
-      <c r="O5" s="153"/>
-      <c r="P5" s="153"/>
-      <c r="Q5" s="153"/>
-      <c r="R5" s="153"/>
-      <c r="S5" s="153"/>
-      <c r="T5" s="153"/>
-      <c r="U5" s="153"/>
-      <c r="V5" s="153"/>
-      <c r="W5" s="153"/>
-      <c r="X5" s="153"/>
-      <c r="Y5" s="153"/>
-      <c r="Z5" s="153"/>
-      <c r="AA5" s="153"/>
+      <c r="K5" s="136"/>
+      <c r="L5" s="136"/>
+      <c r="M5" s="133"/>
+      <c r="N5" s="133"/>
+      <c r="O5" s="133"/>
+      <c r="P5" s="133"/>
+      <c r="Q5" s="133"/>
+      <c r="R5" s="133"/>
+      <c r="S5" s="133"/>
+      <c r="T5" s="133"/>
+      <c r="U5" s="133"/>
+      <c r="V5" s="133"/>
+      <c r="W5" s="133"/>
+      <c r="X5" s="133"/>
+      <c r="Y5" s="133"/>
+      <c r="Z5" s="133"/>
+      <c r="AA5" s="133"/>
       <c r="AB5" s="6"/>
       <c r="AC5" s="6"/>
       <c r="AD5" s="6"/>
@@ -7877,30 +7890,30 @@
       <c r="AF5" s="7"/>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A6" s="130" t="s">
-        <v>156</v>
-      </c>
-      <c r="B6" s="130"/>
-      <c r="C6" s="141"/>
-      <c r="D6" s="142"/>
-      <c r="E6" s="142"/>
-      <c r="F6" s="142"/>
-      <c r="G6" s="143"/>
-      <c r="M6" s="153"/>
-      <c r="N6" s="153"/>
-      <c r="O6" s="153"/>
-      <c r="P6" s="153"/>
-      <c r="Q6" s="153"/>
-      <c r="R6" s="153"/>
-      <c r="S6" s="153"/>
-      <c r="T6" s="153"/>
-      <c r="U6" s="153"/>
-      <c r="V6" s="153"/>
-      <c r="W6" s="153"/>
-      <c r="X6" s="153"/>
-      <c r="Y6" s="153"/>
-      <c r="Z6" s="153"/>
-      <c r="AA6" s="153"/>
+      <c r="A6" s="132" t="s">
+        <v>154</v>
+      </c>
+      <c r="B6" s="132"/>
+      <c r="C6" s="129"/>
+      <c r="D6" s="130"/>
+      <c r="E6" s="130"/>
+      <c r="F6" s="130"/>
+      <c r="G6" s="131"/>
+      <c r="M6" s="133"/>
+      <c r="N6" s="133"/>
+      <c r="O6" s="133"/>
+      <c r="P6" s="133"/>
+      <c r="Q6" s="133"/>
+      <c r="R6" s="133"/>
+      <c r="S6" s="133"/>
+      <c r="T6" s="133"/>
+      <c r="U6" s="133"/>
+      <c r="V6" s="133"/>
+      <c r="W6" s="133"/>
+      <c r="X6" s="133"/>
+      <c r="Y6" s="133"/>
+      <c r="Z6" s="133"/>
+      <c r="AA6" s="133"/>
       <c r="AB6" s="7"/>
       <c r="AC6" s="7"/>
       <c r="AD6" s="7"/>
@@ -7908,30 +7921,30 @@
       <c r="AF6" s="7"/>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A7" s="130" t="s">
+      <c r="A7" s="132" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="130"/>
-      <c r="C7" s="141"/>
-      <c r="D7" s="142"/>
-      <c r="E7" s="142"/>
-      <c r="F7" s="142"/>
-      <c r="G7" s="143"/>
-      <c r="M7" s="153"/>
-      <c r="N7" s="153"/>
-      <c r="O7" s="153"/>
-      <c r="P7" s="153"/>
-      <c r="Q7" s="153"/>
-      <c r="R7" s="153"/>
-      <c r="S7" s="153"/>
-      <c r="T7" s="153"/>
-      <c r="U7" s="153"/>
-      <c r="V7" s="153"/>
-      <c r="W7" s="153"/>
-      <c r="X7" s="153"/>
-      <c r="Y7" s="153"/>
-      <c r="Z7" s="153"/>
-      <c r="AA7" s="153"/>
+      <c r="B7" s="132"/>
+      <c r="C7" s="129"/>
+      <c r="D7" s="130"/>
+      <c r="E7" s="130"/>
+      <c r="F7" s="130"/>
+      <c r="G7" s="131"/>
+      <c r="M7" s="133"/>
+      <c r="N7" s="133"/>
+      <c r="O7" s="133"/>
+      <c r="P7" s="133"/>
+      <c r="Q7" s="133"/>
+      <c r="R7" s="133"/>
+      <c r="S7" s="133"/>
+      <c r="T7" s="133"/>
+      <c r="U7" s="133"/>
+      <c r="V7" s="133"/>
+      <c r="W7" s="133"/>
+      <c r="X7" s="133"/>
+      <c r="Y7" s="133"/>
+      <c r="Z7" s="133"/>
+      <c r="AA7" s="133"/>
       <c r="AB7" s="7"/>
       <c r="AC7" s="7"/>
       <c r="AD7" s="7"/>
@@ -7943,31 +7956,31 @@
       <c r="B8" s="31" t="s">
         <v>99</v>
       </c>
-      <c r="C8" s="144"/>
-      <c r="D8" s="145"/>
-      <c r="E8" s="145"/>
-      <c r="F8" s="145"/>
-      <c r="G8" s="146"/>
+      <c r="C8" s="137"/>
+      <c r="D8" s="138"/>
+      <c r="E8" s="138"/>
+      <c r="F8" s="138"/>
+      <c r="G8" s="139"/>
       <c r="H8" s="33"/>
       <c r="I8" s="33"/>
       <c r="J8" s="33"/>
       <c r="K8" s="33"/>
       <c r="L8" s="33"/>
-      <c r="M8" s="153"/>
-      <c r="N8" s="153"/>
-      <c r="O8" s="153"/>
-      <c r="P8" s="153"/>
-      <c r="Q8" s="153"/>
-      <c r="R8" s="153"/>
-      <c r="S8" s="153"/>
-      <c r="T8" s="153"/>
-      <c r="U8" s="153"/>
-      <c r="V8" s="153"/>
-      <c r="W8" s="153"/>
-      <c r="X8" s="153"/>
-      <c r="Y8" s="153"/>
-      <c r="Z8" s="153"/>
-      <c r="AA8" s="153"/>
+      <c r="M8" s="133"/>
+      <c r="N8" s="133"/>
+      <c r="O8" s="133"/>
+      <c r="P8" s="133"/>
+      <c r="Q8" s="133"/>
+      <c r="R8" s="133"/>
+      <c r="S8" s="133"/>
+      <c r="T8" s="133"/>
+      <c r="U8" s="133"/>
+      <c r="V8" s="133"/>
+      <c r="W8" s="133"/>
+      <c r="X8" s="133"/>
+      <c r="Y8" s="133"/>
+      <c r="Z8" s="133"/>
+      <c r="AA8" s="133"/>
       <c r="AB8" s="7"/>
       <c r="AC8" s="7"/>
       <c r="AD8" s="7"/>
@@ -7977,31 +7990,31 @@
     <row r="9" spans="1:32" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="31"/>
       <c r="B9" s="31"/>
-      <c r="C9" s="147"/>
-      <c r="D9" s="148"/>
-      <c r="E9" s="148"/>
-      <c r="F9" s="148"/>
-      <c r="G9" s="149"/>
+      <c r="C9" s="140"/>
+      <c r="D9" s="141"/>
+      <c r="E9" s="141"/>
+      <c r="F9" s="141"/>
+      <c r="G9" s="142"/>
       <c r="H9" s="33"/>
       <c r="I9" s="33"/>
       <c r="J9" s="33"/>
       <c r="K9" s="33"/>
       <c r="L9" s="33"/>
-      <c r="M9" s="153"/>
-      <c r="N9" s="153"/>
-      <c r="O9" s="153"/>
-      <c r="P9" s="153"/>
-      <c r="Q9" s="153"/>
-      <c r="R9" s="153"/>
-      <c r="S9" s="153"/>
-      <c r="T9" s="153"/>
-      <c r="U9" s="153"/>
-      <c r="V9" s="153"/>
-      <c r="W9" s="153"/>
-      <c r="X9" s="153"/>
-      <c r="Y9" s="153"/>
-      <c r="Z9" s="153"/>
-      <c r="AA9" s="153"/>
+      <c r="M9" s="133"/>
+      <c r="N9" s="133"/>
+      <c r="O9" s="133"/>
+      <c r="P9" s="133"/>
+      <c r="Q9" s="133"/>
+      <c r="R9" s="133"/>
+      <c r="S9" s="133"/>
+      <c r="T9" s="133"/>
+      <c r="U9" s="133"/>
+      <c r="V9" s="133"/>
+      <c r="W9" s="133"/>
+      <c r="X9" s="133"/>
+      <c r="Y9" s="133"/>
+      <c r="Z9" s="133"/>
+      <c r="AA9" s="133"/>
       <c r="AB9" s="7"/>
       <c r="AC9" s="7"/>
       <c r="AD9" s="7"/>
@@ -8016,21 +8029,21 @@
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
-      <c r="M10" s="153"/>
-      <c r="N10" s="153"/>
-      <c r="O10" s="153"/>
-      <c r="P10" s="153"/>
-      <c r="Q10" s="153"/>
-      <c r="R10" s="153"/>
-      <c r="S10" s="153"/>
-      <c r="T10" s="153"/>
-      <c r="U10" s="153"/>
-      <c r="V10" s="153"/>
-      <c r="W10" s="153"/>
-      <c r="X10" s="153"/>
-      <c r="Y10" s="153"/>
-      <c r="Z10" s="153"/>
-      <c r="AA10" s="153"/>
+      <c r="M10" s="133"/>
+      <c r="N10" s="133"/>
+      <c r="O10" s="133"/>
+      <c r="P10" s="133"/>
+      <c r="Q10" s="133"/>
+      <c r="R10" s="133"/>
+      <c r="S10" s="133"/>
+      <c r="T10" s="133"/>
+      <c r="U10" s="133"/>
+      <c r="V10" s="133"/>
+      <c r="W10" s="133"/>
+      <c r="X10" s="133"/>
+      <c r="Y10" s="133"/>
+      <c r="Z10" s="133"/>
+      <c r="AA10" s="133"/>
       <c r="AB10" s="7"/>
       <c r="AC10" s="7"/>
       <c r="AD10" s="7"/>
@@ -8044,23 +8057,23 @@
       </c>
       <c r="E11" s="25"/>
       <c r="F11" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="M11" s="153"/>
-      <c r="N11" s="153"/>
-      <c r="O11" s="153"/>
-      <c r="P11" s="153"/>
-      <c r="Q11" s="153"/>
-      <c r="R11" s="153"/>
-      <c r="S11" s="153"/>
-      <c r="T11" s="153"/>
-      <c r="U11" s="153"/>
-      <c r="V11" s="153"/>
-      <c r="W11" s="153"/>
-      <c r="X11" s="153"/>
-      <c r="Y11" s="153"/>
-      <c r="Z11" s="153"/>
-      <c r="AA11" s="153"/>
+        <v>120</v>
+      </c>
+      <c r="M11" s="133"/>
+      <c r="N11" s="133"/>
+      <c r="O11" s="133"/>
+      <c r="P11" s="133"/>
+      <c r="Q11" s="133"/>
+      <c r="R11" s="133"/>
+      <c r="S11" s="133"/>
+      <c r="T11" s="133"/>
+      <c r="U11" s="133"/>
+      <c r="V11" s="133"/>
+      <c r="W11" s="133"/>
+      <c r="X11" s="133"/>
+      <c r="Y11" s="133"/>
+      <c r="Z11" s="133"/>
+      <c r="AA11" s="133"/>
       <c r="AB11" s="7"/>
       <c r="AC11" s="7"/>
       <c r="AD11" s="7"/>
@@ -8073,23 +8086,23 @@
       <c r="D12" s="13"/>
       <c r="E12" s="42"/>
       <c r="F12" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="M12" s="153"/>
-      <c r="N12" s="153"/>
-      <c r="O12" s="153"/>
-      <c r="P12" s="153"/>
-      <c r="Q12" s="153"/>
-      <c r="R12" s="153"/>
-      <c r="S12" s="153"/>
-      <c r="T12" s="153"/>
-      <c r="U12" s="153"/>
-      <c r="V12" s="153"/>
-      <c r="W12" s="153"/>
-      <c r="X12" s="153"/>
-      <c r="Y12" s="153"/>
-      <c r="Z12" s="153"/>
-      <c r="AA12" s="153"/>
+        <v>121</v>
+      </c>
+      <c r="M12" s="133"/>
+      <c r="N12" s="133"/>
+      <c r="O12" s="133"/>
+      <c r="P12" s="133"/>
+      <c r="Q12" s="133"/>
+      <c r="R12" s="133"/>
+      <c r="S12" s="133"/>
+      <c r="T12" s="133"/>
+      <c r="U12" s="133"/>
+      <c r="V12" s="133"/>
+      <c r="W12" s="133"/>
+      <c r="X12" s="133"/>
+      <c r="Y12" s="133"/>
+      <c r="Z12" s="133"/>
+      <c r="AA12" s="133"/>
       <c r="AB12" s="7"/>
       <c r="AC12" s="7"/>
       <c r="AD12" s="7"/>
@@ -8103,26 +8116,26 @@
       <c r="D13" s="11"/>
       <c r="E13" s="43"/>
       <c r="F13" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
       <c r="I13" s="12"/>
-      <c r="M13" s="153"/>
-      <c r="N13" s="153"/>
-      <c r="O13" s="153"/>
-      <c r="P13" s="153"/>
-      <c r="Q13" s="153"/>
-      <c r="R13" s="153"/>
-      <c r="S13" s="153"/>
-      <c r="T13" s="153"/>
-      <c r="U13" s="153"/>
-      <c r="V13" s="153"/>
-      <c r="W13" s="153"/>
-      <c r="X13" s="153"/>
-      <c r="Y13" s="153"/>
-      <c r="Z13" s="153"/>
-      <c r="AA13" s="153"/>
+      <c r="M13" s="133"/>
+      <c r="N13" s="133"/>
+      <c r="O13" s="133"/>
+      <c r="P13" s="133"/>
+      <c r="Q13" s="133"/>
+      <c r="R13" s="133"/>
+      <c r="S13" s="133"/>
+      <c r="T13" s="133"/>
+      <c r="U13" s="133"/>
+      <c r="V13" s="133"/>
+      <c r="W13" s="133"/>
+      <c r="X13" s="133"/>
+      <c r="Y13" s="133"/>
+      <c r="Z13" s="133"/>
+      <c r="AA13" s="133"/>
       <c r="AB13" s="7"/>
       <c r="AC13" s="7"/>
       <c r="AD13" s="7"/>
@@ -8136,7 +8149,7 @@
       <c r="D14" s="11"/>
       <c r="E14" s="40"/>
       <c r="F14" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
@@ -8172,7 +8185,7 @@
       <c r="D15" s="11"/>
       <c r="E15" s="35"/>
       <c r="F15" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
@@ -8223,161 +8236,161 @@
       <c r="AF16" s="7"/>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A17" s="130" t="s">
+      <c r="A17" s="132" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="130"/>
-      <c r="C17" s="131" t="s">
+      <c r="B17" s="132"/>
+      <c r="C17" s="149" t="s">
         <v>85</v>
       </c>
-      <c r="D17" s="132"/>
-      <c r="E17" s="132"/>
-      <c r="F17" s="132"/>
-      <c r="G17" s="132"/>
-      <c r="H17" s="132"/>
-      <c r="I17" s="132"/>
-      <c r="J17" s="132"/>
-      <c r="K17" s="132"/>
-      <c r="L17" s="132"/>
-      <c r="M17" s="132"/>
-      <c r="N17" s="132"/>
-      <c r="O17" s="132"/>
-      <c r="P17" s="132"/>
-      <c r="Q17" s="132"/>
-      <c r="R17" s="132"/>
-      <c r="S17" s="132"/>
-      <c r="T17" s="132"/>
-      <c r="U17" s="132"/>
-      <c r="V17" s="132"/>
-      <c r="W17" s="132"/>
-      <c r="X17" s="132"/>
-      <c r="Y17" s="132"/>
-      <c r="Z17" s="132"/>
-      <c r="AA17" s="133"/>
+      <c r="D17" s="150"/>
+      <c r="E17" s="150"/>
+      <c r="F17" s="150"/>
+      <c r="G17" s="150"/>
+      <c r="H17" s="150"/>
+      <c r="I17" s="150"/>
+      <c r="J17" s="150"/>
+      <c r="K17" s="150"/>
+      <c r="L17" s="150"/>
+      <c r="M17" s="150"/>
+      <c r="N17" s="150"/>
+      <c r="O17" s="150"/>
+      <c r="P17" s="150"/>
+      <c r="Q17" s="150"/>
+      <c r="R17" s="150"/>
+      <c r="S17" s="150"/>
+      <c r="T17" s="150"/>
+      <c r="U17" s="150"/>
+      <c r="V17" s="150"/>
+      <c r="W17" s="150"/>
+      <c r="X17" s="150"/>
+      <c r="Y17" s="150"/>
+      <c r="Z17" s="150"/>
+      <c r="AA17" s="151"/>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" s="13"/>
       <c r="B18" s="13"/>
-      <c r="C18" s="134" t="s">
+      <c r="C18" s="152" t="s">
         <v>87</v>
       </c>
-      <c r="D18" s="135"/>
-      <c r="E18" s="135"/>
-      <c r="F18" s="135"/>
-      <c r="G18" s="135"/>
-      <c r="H18" s="135"/>
-      <c r="I18" s="135"/>
-      <c r="J18" s="135"/>
-      <c r="K18" s="135"/>
-      <c r="L18" s="135"/>
-      <c r="M18" s="135"/>
-      <c r="N18" s="135"/>
-      <c r="O18" s="135"/>
-      <c r="P18" s="135"/>
-      <c r="Q18" s="135"/>
-      <c r="R18" s="135"/>
-      <c r="S18" s="135"/>
-      <c r="T18" s="135"/>
-      <c r="U18" s="135"/>
-      <c r="V18" s="135"/>
-      <c r="W18" s="135"/>
-      <c r="X18" s="135"/>
-      <c r="Y18" s="135"/>
-      <c r="Z18" s="135"/>
-      <c r="AA18" s="136"/>
+      <c r="D18" s="153"/>
+      <c r="E18" s="153"/>
+      <c r="F18" s="153"/>
+      <c r="G18" s="153"/>
+      <c r="H18" s="153"/>
+      <c r="I18" s="153"/>
+      <c r="J18" s="153"/>
+      <c r="K18" s="153"/>
+      <c r="L18" s="153"/>
+      <c r="M18" s="153"/>
+      <c r="N18" s="153"/>
+      <c r="O18" s="153"/>
+      <c r="P18" s="153"/>
+      <c r="Q18" s="153"/>
+      <c r="R18" s="153"/>
+      <c r="S18" s="153"/>
+      <c r="T18" s="153"/>
+      <c r="U18" s="153"/>
+      <c r="V18" s="153"/>
+      <c r="W18" s="153"/>
+      <c r="X18" s="153"/>
+      <c r="Y18" s="153"/>
+      <c r="Z18" s="153"/>
+      <c r="AA18" s="154"/>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" s="13"/>
       <c r="B19" s="13"/>
-      <c r="C19" s="134" t="s">
+      <c r="C19" s="152" t="s">
         <v>76</v>
       </c>
-      <c r="D19" s="135"/>
-      <c r="E19" s="135"/>
-      <c r="F19" s="135"/>
-      <c r="G19" s="135"/>
-      <c r="H19" s="135"/>
-      <c r="I19" s="135"/>
-      <c r="J19" s="135"/>
-      <c r="K19" s="135"/>
-      <c r="L19" s="135"/>
-      <c r="M19" s="135"/>
-      <c r="N19" s="135"/>
-      <c r="O19" s="135"/>
-      <c r="P19" s="135"/>
-      <c r="Q19" s="135"/>
-      <c r="R19" s="135"/>
-      <c r="S19" s="135"/>
-      <c r="T19" s="135"/>
-      <c r="U19" s="135"/>
-      <c r="V19" s="135"/>
-      <c r="W19" s="135"/>
-      <c r="X19" s="135"/>
-      <c r="Y19" s="135"/>
-      <c r="Z19" s="135"/>
-      <c r="AA19" s="136"/>
+      <c r="D19" s="153"/>
+      <c r="E19" s="153"/>
+      <c r="F19" s="153"/>
+      <c r="G19" s="153"/>
+      <c r="H19" s="153"/>
+      <c r="I19" s="153"/>
+      <c r="J19" s="153"/>
+      <c r="K19" s="153"/>
+      <c r="L19" s="153"/>
+      <c r="M19" s="153"/>
+      <c r="N19" s="153"/>
+      <c r="O19" s="153"/>
+      <c r="P19" s="153"/>
+      <c r="Q19" s="153"/>
+      <c r="R19" s="153"/>
+      <c r="S19" s="153"/>
+      <c r="T19" s="153"/>
+      <c r="U19" s="153"/>
+      <c r="V19" s="153"/>
+      <c r="W19" s="153"/>
+      <c r="X19" s="153"/>
+      <c r="Y19" s="153"/>
+      <c r="Z19" s="153"/>
+      <c r="AA19" s="154"/>
     </row>
     <row r="20" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="13"/>
       <c r="B20" s="13"/>
-      <c r="C20" s="137" t="s">
+      <c r="C20" s="155" t="s">
         <v>77</v>
       </c>
-      <c r="D20" s="138"/>
-      <c r="E20" s="138"/>
-      <c r="F20" s="138"/>
-      <c r="G20" s="138"/>
-      <c r="H20" s="138"/>
-      <c r="I20" s="138"/>
-      <c r="J20" s="138"/>
-      <c r="K20" s="138"/>
-      <c r="L20" s="138"/>
-      <c r="M20" s="138"/>
-      <c r="N20" s="138"/>
-      <c r="O20" s="138"/>
-      <c r="P20" s="138"/>
-      <c r="Q20" s="138"/>
-      <c r="R20" s="138"/>
-      <c r="S20" s="138"/>
-      <c r="T20" s="138"/>
-      <c r="U20" s="138"/>
-      <c r="V20" s="138"/>
-      <c r="W20" s="138"/>
-      <c r="X20" s="138"/>
-      <c r="Y20" s="138"/>
-      <c r="Z20" s="138"/>
-      <c r="AA20" s="139"/>
+      <c r="D20" s="156"/>
+      <c r="E20" s="156"/>
+      <c r="F20" s="156"/>
+      <c r="G20" s="156"/>
+      <c r="H20" s="156"/>
+      <c r="I20" s="156"/>
+      <c r="J20" s="156"/>
+      <c r="K20" s="156"/>
+      <c r="L20" s="156"/>
+      <c r="M20" s="156"/>
+      <c r="N20" s="156"/>
+      <c r="O20" s="156"/>
+      <c r="P20" s="156"/>
+      <c r="Q20" s="156"/>
+      <c r="R20" s="156"/>
+      <c r="S20" s="156"/>
+      <c r="T20" s="156"/>
+      <c r="U20" s="156"/>
+      <c r="V20" s="156"/>
+      <c r="W20" s="156"/>
+      <c r="X20" s="156"/>
+      <c r="Y20" s="156"/>
+      <c r="Z20" s="156"/>
+      <c r="AA20" s="157"/>
     </row>
     <row r="22" spans="1:27" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="152" t="s">
+      <c r="A22" s="158" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="152"/>
-      <c r="C22" s="152"/>
-      <c r="D22" s="152"/>
-      <c r="E22" s="152"/>
-      <c r="F22" s="152"/>
-      <c r="G22" s="152"/>
-      <c r="H22" s="152"/>
-      <c r="I22" s="152"/>
-      <c r="J22" s="152"/>
-      <c r="K22" s="152"/>
-      <c r="L22" s="152"/>
-      <c r="M22" s="152"/>
-      <c r="N22" s="152"/>
-      <c r="O22" s="152"/>
-      <c r="P22" s="152"/>
-      <c r="Q22" s="152"/>
-      <c r="R22" s="152"/>
-      <c r="S22" s="152"/>
-      <c r="T22" s="152"/>
-      <c r="U22" s="152"/>
-      <c r="V22" s="152"/>
-      <c r="W22" s="152"/>
-      <c r="X22" s="152"/>
-      <c r="Y22" s="152"/>
-      <c r="Z22" s="152"/>
-      <c r="AA22" s="152"/>
+      <c r="B22" s="158"/>
+      <c r="C22" s="158"/>
+      <c r="D22" s="158"/>
+      <c r="E22" s="158"/>
+      <c r="F22" s="158"/>
+      <c r="G22" s="158"/>
+      <c r="H22" s="158"/>
+      <c r="I22" s="158"/>
+      <c r="J22" s="158"/>
+      <c r="K22" s="158"/>
+      <c r="L22" s="158"/>
+      <c r="M22" s="158"/>
+      <c r="N22" s="158"/>
+      <c r="O22" s="158"/>
+      <c r="P22" s="158"/>
+      <c r="Q22" s="158"/>
+      <c r="R22" s="158"/>
+      <c r="S22" s="158"/>
+      <c r="T22" s="158"/>
+      <c r="U22" s="158"/>
+      <c r="V22" s="158"/>
+      <c r="W22" s="158"/>
+      <c r="X22" s="158"/>
+      <c r="Y22" s="158"/>
+      <c r="Z22" s="158"/>
+      <c r="AA22" s="158"/>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
@@ -9176,35 +9189,35 @@
       <c r="J46" s="19"/>
     </row>
     <row r="49" spans="1:27" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A49" s="152" t="s">
+      <c r="A49" s="158" t="s">
         <v>86</v>
       </c>
-      <c r="B49" s="152"/>
-      <c r="C49" s="152"/>
-      <c r="D49" s="152"/>
-      <c r="E49" s="152"/>
-      <c r="F49" s="152"/>
-      <c r="G49" s="152"/>
-      <c r="H49" s="152"/>
-      <c r="I49" s="152"/>
-      <c r="J49" s="152"/>
-      <c r="K49" s="152"/>
-      <c r="L49" s="152"/>
-      <c r="M49" s="152"/>
-      <c r="N49" s="152"/>
-      <c r="O49" s="152"/>
-      <c r="P49" s="152"/>
-      <c r="Q49" s="152"/>
-      <c r="R49" s="152"/>
-      <c r="S49" s="152"/>
-      <c r="T49" s="152"/>
-      <c r="U49" s="152"/>
-      <c r="V49" s="152"/>
-      <c r="W49" s="152"/>
-      <c r="X49" s="152"/>
-      <c r="Y49" s="152"/>
-      <c r="Z49" s="152"/>
-      <c r="AA49" s="152"/>
+      <c r="B49" s="158"/>
+      <c r="C49" s="158"/>
+      <c r="D49" s="158"/>
+      <c r="E49" s="158"/>
+      <c r="F49" s="158"/>
+      <c r="G49" s="158"/>
+      <c r="H49" s="158"/>
+      <c r="I49" s="158"/>
+      <c r="J49" s="158"/>
+      <c r="K49" s="158"/>
+      <c r="L49" s="158"/>
+      <c r="M49" s="158"/>
+      <c r="N49" s="158"/>
+      <c r="O49" s="158"/>
+      <c r="P49" s="158"/>
+      <c r="Q49" s="158"/>
+      <c r="R49" s="158"/>
+      <c r="S49" s="158"/>
+      <c r="T49" s="158"/>
+      <c r="U49" s="158"/>
+      <c r="V49" s="158"/>
+      <c r="W49" s="158"/>
+      <c r="X49" s="158"/>
+      <c r="Y49" s="158"/>
+      <c r="Z49" s="158"/>
+      <c r="AA49" s="158"/>
     </row>
     <row r="50" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
@@ -9951,16 +9964,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="M3:AA13"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="A6:B6"/>
     <mergeCell ref="C19:AA19"/>
     <mergeCell ref="C20:AA20"/>
     <mergeCell ref="A22:AA22"/>
@@ -9972,6 +9975,16 @@
     <mergeCell ref="C17:AA17"/>
     <mergeCell ref="C18:AA18"/>
     <mergeCell ref="C8:G9"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="M3:AA13"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="A6:B6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -9995,20 +10008,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="129" t="s">
-        <v>173</v>
-      </c>
-      <c r="B1" s="129"/>
-      <c r="C1" s="129"/>
-      <c r="D1" s="129"/>
-      <c r="E1" s="129"/>
-      <c r="F1" s="129"/>
-      <c r="G1" s="129"/>
-      <c r="H1" s="129"/>
-      <c r="I1" s="129"/>
-      <c r="J1" s="129"/>
-      <c r="K1" s="129"/>
-      <c r="L1" s="129"/>
+      <c r="A1" s="135" t="s">
+        <v>171</v>
+      </c>
+      <c r="B1" s="135"/>
+      <c r="C1" s="135"/>
+      <c r="D1" s="135"/>
+      <c r="E1" s="135"/>
+      <c r="F1" s="135"/>
+      <c r="G1" s="135"/>
+      <c r="H1" s="135"/>
+      <c r="I1" s="135"/>
+      <c r="J1" s="135"/>
+      <c r="K1" s="135"/>
+      <c r="L1" s="135"/>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="S2" s="7"/>
@@ -10024,32 +10037,32 @@
       <c r="AC2" s="7"/>
     </row>
     <row r="3" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="130" t="s">
+      <c r="A3" s="132" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="130"/>
-      <c r="C3" s="141"/>
-      <c r="D3" s="142"/>
-      <c r="E3" s="142"/>
-      <c r="F3" s="142"/>
-      <c r="G3" s="143"/>
-      <c r="J3" s="130" t="s">
+      <c r="B3" s="132"/>
+      <c r="C3" s="129"/>
+      <c r="D3" s="130"/>
+      <c r="E3" s="130"/>
+      <c r="F3" s="130"/>
+      <c r="G3" s="131"/>
+      <c r="J3" s="132" t="s">
         <v>36</v>
       </c>
-      <c r="K3" s="130"/>
-      <c r="L3" s="130"/>
-      <c r="M3" s="153"/>
-      <c r="N3" s="153"/>
-      <c r="O3" s="153"/>
-      <c r="P3" s="153"/>
-      <c r="Q3" s="153"/>
-      <c r="R3" s="153"/>
-      <c r="S3" s="153"/>
-      <c r="T3" s="153"/>
-      <c r="U3" s="153"/>
-      <c r="V3" s="153"/>
-      <c r="W3" s="153"/>
-      <c r="X3" s="153"/>
+      <c r="K3" s="132"/>
+      <c r="L3" s="132"/>
+      <c r="M3" s="133"/>
+      <c r="N3" s="133"/>
+      <c r="O3" s="133"/>
+      <c r="P3" s="133"/>
+      <c r="Q3" s="133"/>
+      <c r="R3" s="133"/>
+      <c r="S3" s="133"/>
+      <c r="T3" s="133"/>
+      <c r="U3" s="133"/>
+      <c r="V3" s="133"/>
+      <c r="W3" s="133"/>
+      <c r="X3" s="133"/>
       <c r="Y3" s="6"/>
       <c r="Z3" s="6"/>
       <c r="AA3" s="6"/>
@@ -10057,32 +10070,32 @@
       <c r="AC3" s="7"/>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A4" s="130" t="s">
+      <c r="A4" s="132" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="130"/>
-      <c r="C4" s="141"/>
-      <c r="D4" s="142"/>
-      <c r="E4" s="142"/>
-      <c r="F4" s="142"/>
-      <c r="G4" s="143"/>
-      <c r="J4" s="130" t="s">
+      <c r="B4" s="132"/>
+      <c r="C4" s="129"/>
+      <c r="D4" s="130"/>
+      <c r="E4" s="130"/>
+      <c r="F4" s="130"/>
+      <c r="G4" s="131"/>
+      <c r="J4" s="132" t="s">
         <v>35</v>
       </c>
-      <c r="K4" s="130"/>
-      <c r="L4" s="130"/>
-      <c r="M4" s="153"/>
-      <c r="N4" s="153"/>
-      <c r="O4" s="153"/>
-      <c r="P4" s="153"/>
-      <c r="Q4" s="153"/>
-      <c r="R4" s="153"/>
-      <c r="S4" s="153"/>
-      <c r="T4" s="153"/>
-      <c r="U4" s="153"/>
-      <c r="V4" s="153"/>
-      <c r="W4" s="153"/>
-      <c r="X4" s="153"/>
+      <c r="K4" s="132"/>
+      <c r="L4" s="132"/>
+      <c r="M4" s="133"/>
+      <c r="N4" s="133"/>
+      <c r="O4" s="133"/>
+      <c r="P4" s="133"/>
+      <c r="Q4" s="133"/>
+      <c r="R4" s="133"/>
+      <c r="S4" s="133"/>
+      <c r="T4" s="133"/>
+      <c r="U4" s="133"/>
+      <c r="V4" s="133"/>
+      <c r="W4" s="133"/>
+      <c r="X4" s="133"/>
       <c r="Y4" s="6"/>
       <c r="Z4" s="6"/>
       <c r="AA4" s="6"/>
@@ -10091,21 +10104,21 @@
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="I5"/>
-      <c r="J5" s="140"/>
-      <c r="K5" s="140"/>
-      <c r="L5" s="140"/>
-      <c r="M5" s="153"/>
-      <c r="N5" s="153"/>
-      <c r="O5" s="153"/>
-      <c r="P5" s="153"/>
-      <c r="Q5" s="153"/>
-      <c r="R5" s="153"/>
-      <c r="S5" s="153"/>
-      <c r="T5" s="153"/>
-      <c r="U5" s="153"/>
-      <c r="V5" s="153"/>
-      <c r="W5" s="153"/>
-      <c r="X5" s="153"/>
+      <c r="J5" s="136"/>
+      <c r="K5" s="136"/>
+      <c r="L5" s="136"/>
+      <c r="M5" s="133"/>
+      <c r="N5" s="133"/>
+      <c r="O5" s="133"/>
+      <c r="P5" s="133"/>
+      <c r="Q5" s="133"/>
+      <c r="R5" s="133"/>
+      <c r="S5" s="133"/>
+      <c r="T5" s="133"/>
+      <c r="U5" s="133"/>
+      <c r="V5" s="133"/>
+      <c r="W5" s="133"/>
+      <c r="X5" s="133"/>
       <c r="Y5" s="6"/>
       <c r="Z5" s="6"/>
       <c r="AA5" s="6"/>
@@ -10113,27 +10126,27 @@
       <c r="AC5" s="7"/>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A6" s="130" t="s">
-        <v>156</v>
-      </c>
-      <c r="B6" s="130"/>
-      <c r="C6" s="141"/>
-      <c r="D6" s="142"/>
-      <c r="E6" s="142"/>
-      <c r="F6" s="142"/>
-      <c r="G6" s="143"/>
-      <c r="M6" s="153"/>
-      <c r="N6" s="153"/>
-      <c r="O6" s="153"/>
-      <c r="P6" s="153"/>
-      <c r="Q6" s="153"/>
-      <c r="R6" s="153"/>
-      <c r="S6" s="153"/>
-      <c r="T6" s="153"/>
-      <c r="U6" s="153"/>
-      <c r="V6" s="153"/>
-      <c r="W6" s="153"/>
-      <c r="X6" s="153"/>
+      <c r="A6" s="132" t="s">
+        <v>154</v>
+      </c>
+      <c r="B6" s="132"/>
+      <c r="C6" s="129"/>
+      <c r="D6" s="130"/>
+      <c r="E6" s="130"/>
+      <c r="F6" s="130"/>
+      <c r="G6" s="131"/>
+      <c r="M6" s="133"/>
+      <c r="N6" s="133"/>
+      <c r="O6" s="133"/>
+      <c r="P6" s="133"/>
+      <c r="Q6" s="133"/>
+      <c r="R6" s="133"/>
+      <c r="S6" s="133"/>
+      <c r="T6" s="133"/>
+      <c r="U6" s="133"/>
+      <c r="V6" s="133"/>
+      <c r="W6" s="133"/>
+      <c r="X6" s="133"/>
       <c r="Y6" s="7"/>
       <c r="Z6" s="7"/>
       <c r="AA6" s="7"/>
@@ -10141,27 +10154,27 @@
       <c r="AC6" s="7"/>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A7" s="130" t="s">
+      <c r="A7" s="132" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="130"/>
-      <c r="C7" s="141"/>
-      <c r="D7" s="142"/>
-      <c r="E7" s="142"/>
-      <c r="F7" s="142"/>
-      <c r="G7" s="143"/>
-      <c r="M7" s="153"/>
-      <c r="N7" s="153"/>
-      <c r="O7" s="153"/>
-      <c r="P7" s="153"/>
-      <c r="Q7" s="153"/>
-      <c r="R7" s="153"/>
-      <c r="S7" s="153"/>
-      <c r="T7" s="153"/>
-      <c r="U7" s="153"/>
-      <c r="V7" s="153"/>
-      <c r="W7" s="153"/>
-      <c r="X7" s="153"/>
+      <c r="B7" s="132"/>
+      <c r="C7" s="129"/>
+      <c r="D7" s="130"/>
+      <c r="E7" s="130"/>
+      <c r="F7" s="130"/>
+      <c r="G7" s="131"/>
+      <c r="M7" s="133"/>
+      <c r="N7" s="133"/>
+      <c r="O7" s="133"/>
+      <c r="P7" s="133"/>
+      <c r="Q7" s="133"/>
+      <c r="R7" s="133"/>
+      <c r="S7" s="133"/>
+      <c r="T7" s="133"/>
+      <c r="U7" s="133"/>
+      <c r="V7" s="133"/>
+      <c r="W7" s="133"/>
+      <c r="X7" s="133"/>
       <c r="Y7" s="7"/>
       <c r="Z7" s="7"/>
       <c r="AA7" s="7"/>
@@ -10173,28 +10186,28 @@
       <c r="B8" s="31" t="s">
         <v>99</v>
       </c>
-      <c r="C8" s="144"/>
-      <c r="D8" s="145"/>
-      <c r="E8" s="145"/>
-      <c r="F8" s="145"/>
-      <c r="G8" s="146"/>
+      <c r="C8" s="137"/>
+      <c r="D8" s="138"/>
+      <c r="E8" s="138"/>
+      <c r="F8" s="138"/>
+      <c r="G8" s="139"/>
       <c r="H8" s="33"/>
       <c r="I8" s="33"/>
       <c r="J8" s="33"/>
       <c r="K8" s="33"/>
       <c r="L8" s="33"/>
-      <c r="M8" s="153"/>
-      <c r="N8" s="153"/>
-      <c r="O8" s="153"/>
-      <c r="P8" s="153"/>
-      <c r="Q8" s="153"/>
-      <c r="R8" s="153"/>
-      <c r="S8" s="153"/>
-      <c r="T8" s="153"/>
-      <c r="U8" s="153"/>
-      <c r="V8" s="153"/>
-      <c r="W8" s="153"/>
-      <c r="X8" s="153"/>
+      <c r="M8" s="133"/>
+      <c r="N8" s="133"/>
+      <c r="O8" s="133"/>
+      <c r="P8" s="133"/>
+      <c r="Q8" s="133"/>
+      <c r="R8" s="133"/>
+      <c r="S8" s="133"/>
+      <c r="T8" s="133"/>
+      <c r="U8" s="133"/>
+      <c r="V8" s="133"/>
+      <c r="W8" s="133"/>
+      <c r="X8" s="133"/>
       <c r="Y8" s="7"/>
       <c r="Z8" s="7"/>
       <c r="AA8" s="7"/>
@@ -10204,28 +10217,28 @@
     <row r="9" spans="1:29" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="31"/>
       <c r="B9" s="31"/>
-      <c r="C9" s="147"/>
-      <c r="D9" s="148"/>
-      <c r="E9" s="148"/>
-      <c r="F9" s="148"/>
-      <c r="G9" s="149"/>
+      <c r="C9" s="140"/>
+      <c r="D9" s="141"/>
+      <c r="E9" s="141"/>
+      <c r="F9" s="141"/>
+      <c r="G9" s="142"/>
       <c r="H9" s="33"/>
       <c r="I9" s="33"/>
       <c r="J9" s="33"/>
       <c r="K9" s="33"/>
       <c r="L9" s="33"/>
-      <c r="M9" s="153"/>
-      <c r="N9" s="153"/>
-      <c r="O9" s="153"/>
-      <c r="P9" s="153"/>
-      <c r="Q9" s="153"/>
-      <c r="R9" s="153"/>
-      <c r="S9" s="153"/>
-      <c r="T9" s="153"/>
-      <c r="U9" s="153"/>
-      <c r="V9" s="153"/>
-      <c r="W9" s="153"/>
-      <c r="X9" s="153"/>
+      <c r="M9" s="133"/>
+      <c r="N9" s="133"/>
+      <c r="O9" s="133"/>
+      <c r="P9" s="133"/>
+      <c r="Q9" s="133"/>
+      <c r="R9" s="133"/>
+      <c r="S9" s="133"/>
+      <c r="T9" s="133"/>
+      <c r="U9" s="133"/>
+      <c r="V9" s="133"/>
+      <c r="W9" s="133"/>
+      <c r="X9" s="133"/>
       <c r="Y9" s="7"/>
       <c r="Z9" s="7"/>
       <c r="AA9" s="7"/>
@@ -10240,18 +10253,18 @@
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
-      <c r="M10" s="153"/>
-      <c r="N10" s="153"/>
-      <c r="O10" s="153"/>
-      <c r="P10" s="153"/>
-      <c r="Q10" s="153"/>
-      <c r="R10" s="153"/>
-      <c r="S10" s="153"/>
-      <c r="T10" s="153"/>
-      <c r="U10" s="153"/>
-      <c r="V10" s="153"/>
-      <c r="W10" s="153"/>
-      <c r="X10" s="153"/>
+      <c r="M10" s="133"/>
+      <c r="N10" s="133"/>
+      <c r="O10" s="133"/>
+      <c r="P10" s="133"/>
+      <c r="Q10" s="133"/>
+      <c r="R10" s="133"/>
+      <c r="S10" s="133"/>
+      <c r="T10" s="133"/>
+      <c r="U10" s="133"/>
+      <c r="V10" s="133"/>
+      <c r="W10" s="133"/>
+      <c r="X10" s="133"/>
       <c r="Y10" s="7"/>
       <c r="Z10" s="7"/>
       <c r="AA10" s="7"/>
@@ -10265,20 +10278,20 @@
       </c>
       <c r="E11" s="25"/>
       <c r="F11" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="M11" s="153"/>
-      <c r="N11" s="153"/>
-      <c r="O11" s="153"/>
-      <c r="P11" s="153"/>
-      <c r="Q11" s="153"/>
-      <c r="R11" s="153"/>
-      <c r="S11" s="153"/>
-      <c r="T11" s="153"/>
-      <c r="U11" s="153"/>
-      <c r="V11" s="153"/>
-      <c r="W11" s="153"/>
-      <c r="X11" s="153"/>
+        <v>116</v>
+      </c>
+      <c r="M11" s="133"/>
+      <c r="N11" s="133"/>
+      <c r="O11" s="133"/>
+      <c r="P11" s="133"/>
+      <c r="Q11" s="133"/>
+      <c r="R11" s="133"/>
+      <c r="S11" s="133"/>
+      <c r="T11" s="133"/>
+      <c r="U11" s="133"/>
+      <c r="V11" s="133"/>
+      <c r="W11" s="133"/>
+      <c r="X11" s="133"/>
       <c r="Y11" s="7"/>
       <c r="Z11" s="7"/>
       <c r="AA11" s="7"/>
@@ -10291,20 +10304,20 @@
       <c r="D12" s="13"/>
       <c r="E12" s="78"/>
       <c r="F12" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="M12" s="153"/>
-      <c r="N12" s="153"/>
-      <c r="O12" s="153"/>
-      <c r="P12" s="153"/>
-      <c r="Q12" s="153"/>
-      <c r="R12" s="153"/>
-      <c r="S12" s="153"/>
-      <c r="T12" s="153"/>
-      <c r="U12" s="153"/>
-      <c r="V12" s="153"/>
-      <c r="W12" s="153"/>
-      <c r="X12" s="153"/>
+        <v>117</v>
+      </c>
+      <c r="M12" s="133"/>
+      <c r="N12" s="133"/>
+      <c r="O12" s="133"/>
+      <c r="P12" s="133"/>
+      <c r="Q12" s="133"/>
+      <c r="R12" s="133"/>
+      <c r="S12" s="133"/>
+      <c r="T12" s="133"/>
+      <c r="U12" s="133"/>
+      <c r="V12" s="133"/>
+      <c r="W12" s="133"/>
+      <c r="X12" s="133"/>
       <c r="Y12" s="7"/>
       <c r="Z12" s="7"/>
       <c r="AA12" s="7"/>
@@ -10318,22 +10331,22 @@
       <c r="D13" s="11"/>
       <c r="E13" s="24"/>
       <c r="F13" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H13" s="12"/>
       <c r="I13" s="12"/>
-      <c r="M13" s="153"/>
-      <c r="N13" s="153"/>
-      <c r="O13" s="153"/>
-      <c r="P13" s="153"/>
-      <c r="Q13" s="153"/>
-      <c r="R13" s="153"/>
-      <c r="S13" s="153"/>
-      <c r="T13" s="153"/>
-      <c r="U13" s="153"/>
-      <c r="V13" s="153"/>
-      <c r="W13" s="153"/>
-      <c r="X13" s="153"/>
+      <c r="M13" s="133"/>
+      <c r="N13" s="133"/>
+      <c r="O13" s="133"/>
+      <c r="P13" s="133"/>
+      <c r="Q13" s="133"/>
+      <c r="R13" s="133"/>
+      <c r="S13" s="133"/>
+      <c r="T13" s="133"/>
+      <c r="U13" s="133"/>
+      <c r="V13" s="133"/>
+      <c r="W13" s="133"/>
+      <c r="X13" s="133"/>
       <c r="Y13" s="7"/>
       <c r="Z13" s="7"/>
       <c r="AA13" s="7"/>
@@ -10359,133 +10372,133 @@
       <c r="AC14" s="7"/>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A15" s="130" t="s">
+      <c r="A15" s="132" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="130"/>
-      <c r="C15" s="131" t="s">
-        <v>120</v>
-      </c>
-      <c r="D15" s="132"/>
-      <c r="E15" s="132"/>
-      <c r="F15" s="132"/>
-      <c r="G15" s="132"/>
-      <c r="H15" s="132"/>
-      <c r="I15" s="132"/>
-      <c r="J15" s="132"/>
-      <c r="K15" s="132"/>
-      <c r="L15" s="132"/>
-      <c r="M15" s="132"/>
-      <c r="N15" s="132"/>
-      <c r="O15" s="132"/>
-      <c r="P15" s="132"/>
-      <c r="Q15" s="132"/>
-      <c r="R15" s="132"/>
-      <c r="S15" s="132"/>
-      <c r="T15" s="132"/>
-      <c r="U15" s="132"/>
-      <c r="V15" s="132"/>
-      <c r="W15" s="132"/>
-      <c r="X15" s="133"/>
+      <c r="B15" s="132"/>
+      <c r="C15" s="149" t="s">
+        <v>119</v>
+      </c>
+      <c r="D15" s="150"/>
+      <c r="E15" s="150"/>
+      <c r="F15" s="150"/>
+      <c r="G15" s="150"/>
+      <c r="H15" s="150"/>
+      <c r="I15" s="150"/>
+      <c r="J15" s="150"/>
+      <c r="K15" s="150"/>
+      <c r="L15" s="150"/>
+      <c r="M15" s="150"/>
+      <c r="N15" s="150"/>
+      <c r="O15" s="150"/>
+      <c r="P15" s="150"/>
+      <c r="Q15" s="150"/>
+      <c r="R15" s="150"/>
+      <c r="S15" s="150"/>
+      <c r="T15" s="150"/>
+      <c r="U15" s="150"/>
+      <c r="V15" s="150"/>
+      <c r="W15" s="150"/>
+      <c r="X15" s="151"/>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" s="13"/>
       <c r="B16" s="13"/>
-      <c r="C16" s="134" t="s">
+      <c r="C16" s="152" t="s">
         <v>89</v>
       </c>
-      <c r="D16" s="135"/>
-      <c r="E16" s="135"/>
-      <c r="F16" s="135"/>
-      <c r="G16" s="135"/>
-      <c r="H16" s="135"/>
-      <c r="I16" s="135"/>
-      <c r="J16" s="135"/>
-      <c r="K16" s="135"/>
-      <c r="L16" s="135"/>
-      <c r="M16" s="135"/>
-      <c r="N16" s="135"/>
-      <c r="O16" s="135"/>
-      <c r="P16" s="135"/>
-      <c r="Q16" s="135"/>
-      <c r="R16" s="135"/>
-      <c r="S16" s="135"/>
-      <c r="T16" s="135"/>
-      <c r="U16" s="135"/>
-      <c r="V16" s="135"/>
-      <c r="W16" s="135"/>
-      <c r="X16" s="136"/>
+      <c r="D16" s="153"/>
+      <c r="E16" s="153"/>
+      <c r="F16" s="153"/>
+      <c r="G16" s="153"/>
+      <c r="H16" s="153"/>
+      <c r="I16" s="153"/>
+      <c r="J16" s="153"/>
+      <c r="K16" s="153"/>
+      <c r="L16" s="153"/>
+      <c r="M16" s="153"/>
+      <c r="N16" s="153"/>
+      <c r="O16" s="153"/>
+      <c r="P16" s="153"/>
+      <c r="Q16" s="153"/>
+      <c r="R16" s="153"/>
+      <c r="S16" s="153"/>
+      <c r="T16" s="153"/>
+      <c r="U16" s="153"/>
+      <c r="V16" s="153"/>
+      <c r="W16" s="153"/>
+      <c r="X16" s="154"/>
     </row>
     <row r="17" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="13"/>
       <c r="B17" s="13"/>
-      <c r="C17" s="137" t="s">
+      <c r="C17" s="155" t="s">
         <v>90</v>
       </c>
-      <c r="D17" s="138"/>
-      <c r="E17" s="138"/>
-      <c r="F17" s="138"/>
-      <c r="G17" s="138"/>
-      <c r="H17" s="138"/>
-      <c r="I17" s="138"/>
-      <c r="J17" s="138"/>
-      <c r="K17" s="138"/>
-      <c r="L17" s="138"/>
-      <c r="M17" s="138"/>
-      <c r="N17" s="138"/>
-      <c r="O17" s="138"/>
-      <c r="P17" s="138"/>
-      <c r="Q17" s="138"/>
-      <c r="R17" s="138"/>
-      <c r="S17" s="138"/>
-      <c r="T17" s="138"/>
-      <c r="U17" s="138"/>
-      <c r="V17" s="138"/>
-      <c r="W17" s="138"/>
-      <c r="X17" s="139"/>
+      <c r="D17" s="156"/>
+      <c r="E17" s="156"/>
+      <c r="F17" s="156"/>
+      <c r="G17" s="156"/>
+      <c r="H17" s="156"/>
+      <c r="I17" s="156"/>
+      <c r="J17" s="156"/>
+      <c r="K17" s="156"/>
+      <c r="L17" s="156"/>
+      <c r="M17" s="156"/>
+      <c r="N17" s="156"/>
+      <c r="O17" s="156"/>
+      <c r="P17" s="156"/>
+      <c r="Q17" s="156"/>
+      <c r="R17" s="156"/>
+      <c r="S17" s="156"/>
+      <c r="T17" s="156"/>
+      <c r="U17" s="156"/>
+      <c r="V17" s="156"/>
+      <c r="W17" s="156"/>
+      <c r="X17" s="157"/>
     </row>
     <row r="19" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="C19" s="160" t="s">
+      <c r="C19" s="163" t="s">
         <v>92</v>
       </c>
-      <c r="D19" s="160"/>
-      <c r="E19" s="160"/>
-      <c r="F19" s="160"/>
-      <c r="G19" s="160" t="s">
+      <c r="D19" s="163"/>
+      <c r="E19" s="163"/>
+      <c r="F19" s="163"/>
+      <c r="G19" s="163" t="s">
         <v>93</v>
       </c>
-      <c r="H19" s="160"/>
-      <c r="I19" s="160" t="s">
-        <v>109</v>
-      </c>
-      <c r="J19" s="160"/>
+      <c r="H19" s="163"/>
+      <c r="I19" s="163" t="s">
+        <v>108</v>
+      </c>
+      <c r="J19" s="163"/>
       <c r="K19" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="L19" s="160" t="s">
-        <v>108</v>
-      </c>
-      <c r="M19" s="160"/>
-      <c r="N19" s="160" t="s">
+      <c r="L19" s="163" t="s">
+        <v>107</v>
+      </c>
+      <c r="M19" s="163"/>
+      <c r="N19" s="163" t="s">
+        <v>109</v>
+      </c>
+      <c r="O19" s="163"/>
+      <c r="P19" s="163" t="s">
         <v>110</v>
       </c>
-      <c r="O19" s="160"/>
-      <c r="P19" s="160" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q19" s="160"/>
-      <c r="R19" s="162" t="s">
+      <c r="Q19" s="163"/>
+      <c r="R19" s="160" t="s">
         <v>95</v>
       </c>
-      <c r="S19" s="162"/>
-      <c r="T19" s="162"/>
-      <c r="U19" s="162"/>
-      <c r="V19" s="162"/>
-      <c r="W19" s="162"/>
-      <c r="X19" s="162"/>
+      <c r="S19" s="160"/>
+      <c r="T19" s="160"/>
+      <c r="U19" s="160"/>
+      <c r="V19" s="160"/>
+      <c r="W19" s="160"/>
+      <c r="X19" s="160"/>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B20" s="10">
@@ -10497,22 +10510,22 @@
       <c r="F20" s="159"/>
       <c r="G20" s="159"/>
       <c r="H20" s="159"/>
-      <c r="I20" s="161"/>
-      <c r="J20" s="161"/>
+      <c r="I20" s="164"/>
+      <c r="J20" s="164"/>
       <c r="K20" s="36"/>
       <c r="L20" s="159"/>
       <c r="M20" s="159"/>
-      <c r="N20" s="161"/>
-      <c r="O20" s="161"/>
-      <c r="P20" s="161"/>
-      <c r="Q20" s="161"/>
-      <c r="R20" s="163"/>
-      <c r="S20" s="163"/>
-      <c r="T20" s="163"/>
-      <c r="U20" s="163"/>
-      <c r="V20" s="163"/>
-      <c r="W20" s="163"/>
-      <c r="X20" s="163"/>
+      <c r="N20" s="164"/>
+      <c r="O20" s="164"/>
+      <c r="P20" s="164"/>
+      <c r="Q20" s="164"/>
+      <c r="R20" s="161"/>
+      <c r="S20" s="161"/>
+      <c r="T20" s="161"/>
+      <c r="U20" s="161"/>
+      <c r="V20" s="161"/>
+      <c r="W20" s="161"/>
+      <c r="X20" s="161"/>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B21" s="10">
@@ -10533,13 +10546,13 @@
       <c r="O21" s="159"/>
       <c r="P21" s="159"/>
       <c r="Q21" s="159"/>
-      <c r="R21" s="164"/>
-      <c r="S21" s="164"/>
-      <c r="T21" s="164"/>
-      <c r="U21" s="164"/>
-      <c r="V21" s="164"/>
-      <c r="W21" s="164"/>
-      <c r="X21" s="164"/>
+      <c r="R21" s="162"/>
+      <c r="S21" s="162"/>
+      <c r="T21" s="162"/>
+      <c r="U21" s="162"/>
+      <c r="V21" s="162"/>
+      <c r="W21" s="162"/>
+      <c r="X21" s="162"/>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B22" s="10">
@@ -10560,13 +10573,13 @@
       <c r="O22" s="159"/>
       <c r="P22" s="159"/>
       <c r="Q22" s="159"/>
-      <c r="R22" s="164"/>
-      <c r="S22" s="164"/>
-      <c r="T22" s="164"/>
-      <c r="U22" s="164"/>
-      <c r="V22" s="164"/>
-      <c r="W22" s="164"/>
-      <c r="X22" s="164"/>
+      <c r="R22" s="162"/>
+      <c r="S22" s="162"/>
+      <c r="T22" s="162"/>
+      <c r="U22" s="162"/>
+      <c r="V22" s="162"/>
+      <c r="W22" s="162"/>
+      <c r="X22" s="162"/>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B23" s="10">
@@ -10587,13 +10600,13 @@
       <c r="O23" s="159"/>
       <c r="P23" s="159"/>
       <c r="Q23" s="159"/>
-      <c r="R23" s="164"/>
-      <c r="S23" s="164"/>
-      <c r="T23" s="164"/>
-      <c r="U23" s="164"/>
-      <c r="V23" s="164"/>
-      <c r="W23" s="164"/>
-      <c r="X23" s="164"/>
+      <c r="R23" s="162"/>
+      <c r="S23" s="162"/>
+      <c r="T23" s="162"/>
+      <c r="U23" s="162"/>
+      <c r="V23" s="162"/>
+      <c r="W23" s="162"/>
+      <c r="X23" s="162"/>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B24" s="10">
@@ -10614,13 +10627,13 @@
       <c r="O24" s="159"/>
       <c r="P24" s="159"/>
       <c r="Q24" s="159"/>
-      <c r="R24" s="164"/>
-      <c r="S24" s="164"/>
-      <c r="T24" s="164"/>
-      <c r="U24" s="164"/>
-      <c r="V24" s="164"/>
-      <c r="W24" s="164"/>
-      <c r="X24" s="164"/>
+      <c r="R24" s="162"/>
+      <c r="S24" s="162"/>
+      <c r="T24" s="162"/>
+      <c r="U24" s="162"/>
+      <c r="V24" s="162"/>
+      <c r="W24" s="162"/>
+      <c r="X24" s="162"/>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B25" s="10">
@@ -10641,13 +10654,13 @@
       <c r="O25" s="159"/>
       <c r="P25" s="159"/>
       <c r="Q25" s="159"/>
-      <c r="R25" s="164"/>
-      <c r="S25" s="164"/>
-      <c r="T25" s="164"/>
-      <c r="U25" s="164"/>
-      <c r="V25" s="164"/>
-      <c r="W25" s="164"/>
-      <c r="X25" s="164"/>
+      <c r="R25" s="162"/>
+      <c r="S25" s="162"/>
+      <c r="T25" s="162"/>
+      <c r="U25" s="162"/>
+      <c r="V25" s="162"/>
+      <c r="W25" s="162"/>
+      <c r="X25" s="162"/>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B26" s="10" t="s">
@@ -10668,16 +10681,74 @@
       <c r="O26" s="159"/>
       <c r="P26" s="159"/>
       <c r="Q26" s="159"/>
-      <c r="R26" s="164"/>
-      <c r="S26" s="164"/>
-      <c r="T26" s="164"/>
-      <c r="U26" s="164"/>
-      <c r="V26" s="164"/>
-      <c r="W26" s="164"/>
-      <c r="X26" s="164"/>
+      <c r="R26" s="162"/>
+      <c r="S26" s="162"/>
+      <c r="T26" s="162"/>
+      <c r="U26" s="162"/>
+      <c r="V26" s="162"/>
+      <c r="W26" s="162"/>
+      <c r="X26" s="162"/>
     </row>
   </sheetData>
   <mergeCells count="74">
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="C16:X16"/>
+    <mergeCell ref="C17:X17"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C15:X15"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="M3:X13"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C8:G9"/>
     <mergeCell ref="P24:Q24"/>
     <mergeCell ref="P25:Q25"/>
     <mergeCell ref="P26:Q26"/>
@@ -10694,64 +10765,6 @@
     <mergeCell ref="P21:Q21"/>
     <mergeCell ref="P22:Q22"/>
     <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="M3:X13"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C8:G9"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="C16:X16"/>
-    <mergeCell ref="C17:X17"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C15:X15"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="N25:O25"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="N23:O23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -10777,20 +10790,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="129" t="s">
-        <v>173</v>
-      </c>
-      <c r="B1" s="129"/>
-      <c r="C1" s="129"/>
-      <c r="D1" s="129"/>
-      <c r="E1" s="129"/>
-      <c r="F1" s="129"/>
-      <c r="G1" s="129"/>
-      <c r="H1" s="129"/>
-      <c r="I1" s="129"/>
-      <c r="J1" s="129"/>
-      <c r="K1" s="129"/>
-      <c r="L1" s="129"/>
+      <c r="A1" s="135" t="s">
+        <v>171</v>
+      </c>
+      <c r="B1" s="135"/>
+      <c r="C1" s="135"/>
+      <c r="D1" s="135"/>
+      <c r="E1" s="135"/>
+      <c r="F1" s="135"/>
+      <c r="G1" s="135"/>
+      <c r="H1" s="135"/>
+      <c r="I1" s="135"/>
+      <c r="J1" s="135"/>
+      <c r="K1" s="135"/>
+      <c r="L1" s="135"/>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="S2" s="7"/>
@@ -10809,35 +10822,35 @@
       <c r="AF2" s="7"/>
     </row>
     <row r="3" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="130" t="s">
+      <c r="A3" s="132" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="130"/>
-      <c r="C3" s="141"/>
-      <c r="D3" s="142"/>
-      <c r="E3" s="142"/>
-      <c r="F3" s="142"/>
-      <c r="G3" s="143"/>
-      <c r="J3" s="130" t="s">
+      <c r="B3" s="132"/>
+      <c r="C3" s="129"/>
+      <c r="D3" s="130"/>
+      <c r="E3" s="130"/>
+      <c r="F3" s="130"/>
+      <c r="G3" s="131"/>
+      <c r="J3" s="132" t="s">
         <v>36</v>
       </c>
-      <c r="K3" s="130"/>
-      <c r="L3" s="130"/>
-      <c r="M3" s="153"/>
-      <c r="N3" s="153"/>
-      <c r="O3" s="153"/>
-      <c r="P3" s="153"/>
-      <c r="Q3" s="153"/>
-      <c r="R3" s="153"/>
-      <c r="S3" s="153"/>
-      <c r="T3" s="153"/>
-      <c r="U3" s="153"/>
-      <c r="V3" s="153"/>
-      <c r="W3" s="153"/>
-      <c r="X3" s="153"/>
-      <c r="Y3" s="153"/>
-      <c r="Z3" s="153"/>
-      <c r="AA3" s="153"/>
+      <c r="K3" s="132"/>
+      <c r="L3" s="132"/>
+      <c r="M3" s="133"/>
+      <c r="N3" s="133"/>
+      <c r="O3" s="133"/>
+      <c r="P3" s="133"/>
+      <c r="Q3" s="133"/>
+      <c r="R3" s="133"/>
+      <c r="S3" s="133"/>
+      <c r="T3" s="133"/>
+      <c r="U3" s="133"/>
+      <c r="V3" s="133"/>
+      <c r="W3" s="133"/>
+      <c r="X3" s="133"/>
+      <c r="Y3" s="133"/>
+      <c r="Z3" s="133"/>
+      <c r="AA3" s="133"/>
       <c r="AB3" s="6"/>
       <c r="AC3" s="6"/>
       <c r="AD3" s="6"/>
@@ -10845,35 +10858,35 @@
       <c r="AF3" s="7"/>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A4" s="130" t="s">
+      <c r="A4" s="132" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="130"/>
-      <c r="C4" s="141"/>
-      <c r="D4" s="142"/>
-      <c r="E4" s="142"/>
-      <c r="F4" s="142"/>
-      <c r="G4" s="143"/>
-      <c r="J4" s="130" t="s">
+      <c r="B4" s="132"/>
+      <c r="C4" s="129"/>
+      <c r="D4" s="130"/>
+      <c r="E4" s="130"/>
+      <c r="F4" s="130"/>
+      <c r="G4" s="131"/>
+      <c r="J4" s="132" t="s">
         <v>35</v>
       </c>
-      <c r="K4" s="130"/>
-      <c r="L4" s="130"/>
-      <c r="M4" s="153"/>
-      <c r="N4" s="153"/>
-      <c r="O4" s="153"/>
-      <c r="P4" s="153"/>
-      <c r="Q4" s="153"/>
-      <c r="R4" s="153"/>
-      <c r="S4" s="153"/>
-      <c r="T4" s="153"/>
-      <c r="U4" s="153"/>
-      <c r="V4" s="153"/>
-      <c r="W4" s="153"/>
-      <c r="X4" s="153"/>
-      <c r="Y4" s="153"/>
-      <c r="Z4" s="153"/>
-      <c r="AA4" s="153"/>
+      <c r="K4" s="132"/>
+      <c r="L4" s="132"/>
+      <c r="M4" s="133"/>
+      <c r="N4" s="133"/>
+      <c r="O4" s="133"/>
+      <c r="P4" s="133"/>
+      <c r="Q4" s="133"/>
+      <c r="R4" s="133"/>
+      <c r="S4" s="133"/>
+      <c r="T4" s="133"/>
+      <c r="U4" s="133"/>
+      <c r="V4" s="133"/>
+      <c r="W4" s="133"/>
+      <c r="X4" s="133"/>
+      <c r="Y4" s="133"/>
+      <c r="Z4" s="133"/>
+      <c r="AA4" s="133"/>
       <c r="AB4" s="6"/>
       <c r="AC4" s="6"/>
       <c r="AD4" s="6"/>
@@ -10882,26 +10895,26 @@
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="I5"/>
-      <c r="J5" s="140" t="s">
+      <c r="J5" s="136" t="s">
         <v>37</v>
       </c>
-      <c r="K5" s="140"/>
-      <c r="L5" s="140"/>
-      <c r="M5" s="153"/>
-      <c r="N5" s="153"/>
-      <c r="O5" s="153"/>
-      <c r="P5" s="153"/>
-      <c r="Q5" s="153"/>
-      <c r="R5" s="153"/>
-      <c r="S5" s="153"/>
-      <c r="T5" s="153"/>
-      <c r="U5" s="153"/>
-      <c r="V5" s="153"/>
-      <c r="W5" s="153"/>
-      <c r="X5" s="153"/>
-      <c r="Y5" s="153"/>
-      <c r="Z5" s="153"/>
-      <c r="AA5" s="153"/>
+      <c r="K5" s="136"/>
+      <c r="L5" s="136"/>
+      <c r="M5" s="133"/>
+      <c r="N5" s="133"/>
+      <c r="O5" s="133"/>
+      <c r="P5" s="133"/>
+      <c r="Q5" s="133"/>
+      <c r="R5" s="133"/>
+      <c r="S5" s="133"/>
+      <c r="T5" s="133"/>
+      <c r="U5" s="133"/>
+      <c r="V5" s="133"/>
+      <c r="W5" s="133"/>
+      <c r="X5" s="133"/>
+      <c r="Y5" s="133"/>
+      <c r="Z5" s="133"/>
+      <c r="AA5" s="133"/>
       <c r="AB5" s="6"/>
       <c r="AC5" s="6"/>
       <c r="AD5" s="6"/>
@@ -10909,30 +10922,30 @@
       <c r="AF5" s="7"/>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A6" s="130" t="s">
-        <v>156</v>
-      </c>
-      <c r="B6" s="130"/>
-      <c r="C6" s="141"/>
-      <c r="D6" s="142"/>
-      <c r="E6" s="142"/>
-      <c r="F6" s="142"/>
-      <c r="G6" s="143"/>
-      <c r="M6" s="153"/>
-      <c r="N6" s="153"/>
-      <c r="O6" s="153"/>
-      <c r="P6" s="153"/>
-      <c r="Q6" s="153"/>
-      <c r="R6" s="153"/>
-      <c r="S6" s="153"/>
-      <c r="T6" s="153"/>
-      <c r="U6" s="153"/>
-      <c r="V6" s="153"/>
-      <c r="W6" s="153"/>
-      <c r="X6" s="153"/>
-      <c r="Y6" s="153"/>
-      <c r="Z6" s="153"/>
-      <c r="AA6" s="153"/>
+      <c r="A6" s="132" t="s">
+        <v>154</v>
+      </c>
+      <c r="B6" s="132"/>
+      <c r="C6" s="129"/>
+      <c r="D6" s="130"/>
+      <c r="E6" s="130"/>
+      <c r="F6" s="130"/>
+      <c r="G6" s="131"/>
+      <c r="M6" s="133"/>
+      <c r="N6" s="133"/>
+      <c r="O6" s="133"/>
+      <c r="P6" s="133"/>
+      <c r="Q6" s="133"/>
+      <c r="R6" s="133"/>
+      <c r="S6" s="133"/>
+      <c r="T6" s="133"/>
+      <c r="U6" s="133"/>
+      <c r="V6" s="133"/>
+      <c r="W6" s="133"/>
+      <c r="X6" s="133"/>
+      <c r="Y6" s="133"/>
+      <c r="Z6" s="133"/>
+      <c r="AA6" s="133"/>
       <c r="AB6" s="7"/>
       <c r="AC6" s="7"/>
       <c r="AD6" s="7"/>
@@ -10940,30 +10953,30 @@
       <c r="AF6" s="7"/>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A7" s="130" t="s">
+      <c r="A7" s="132" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="130"/>
-      <c r="C7" s="141"/>
-      <c r="D7" s="142"/>
-      <c r="E7" s="142"/>
-      <c r="F7" s="142"/>
-      <c r="G7" s="143"/>
-      <c r="M7" s="153"/>
-      <c r="N7" s="153"/>
-      <c r="O7" s="153"/>
-      <c r="P7" s="153"/>
-      <c r="Q7" s="153"/>
-      <c r="R7" s="153"/>
-      <c r="S7" s="153"/>
-      <c r="T7" s="153"/>
-      <c r="U7" s="153"/>
-      <c r="V7" s="153"/>
-      <c r="W7" s="153"/>
-      <c r="X7" s="153"/>
-      <c r="Y7" s="153"/>
-      <c r="Z7" s="153"/>
-      <c r="AA7" s="153"/>
+      <c r="B7" s="132"/>
+      <c r="C7" s="129"/>
+      <c r="D7" s="130"/>
+      <c r="E7" s="130"/>
+      <c r="F7" s="130"/>
+      <c r="G7" s="131"/>
+      <c r="M7" s="133"/>
+      <c r="N7" s="133"/>
+      <c r="O7" s="133"/>
+      <c r="P7" s="133"/>
+      <c r="Q7" s="133"/>
+      <c r="R7" s="133"/>
+      <c r="S7" s="133"/>
+      <c r="T7" s="133"/>
+      <c r="U7" s="133"/>
+      <c r="V7" s="133"/>
+      <c r="W7" s="133"/>
+      <c r="X7" s="133"/>
+      <c r="Y7" s="133"/>
+      <c r="Z7" s="133"/>
+      <c r="AA7" s="133"/>
       <c r="AB7" s="7"/>
       <c r="AC7" s="7"/>
       <c r="AD7" s="7"/>
@@ -10975,31 +10988,31 @@
       <c r="B8" s="31" t="s">
         <v>99</v>
       </c>
-      <c r="C8" s="144"/>
-      <c r="D8" s="145"/>
-      <c r="E8" s="145"/>
-      <c r="F8" s="145"/>
-      <c r="G8" s="146"/>
+      <c r="C8" s="137"/>
+      <c r="D8" s="138"/>
+      <c r="E8" s="138"/>
+      <c r="F8" s="138"/>
+      <c r="G8" s="139"/>
       <c r="H8" s="33"/>
       <c r="I8" s="33"/>
       <c r="J8" s="33"/>
       <c r="K8" s="33"/>
       <c r="L8" s="33"/>
-      <c r="M8" s="153"/>
-      <c r="N8" s="153"/>
-      <c r="O8" s="153"/>
-      <c r="P8" s="153"/>
-      <c r="Q8" s="153"/>
-      <c r="R8" s="153"/>
-      <c r="S8" s="153"/>
-      <c r="T8" s="153"/>
-      <c r="U8" s="153"/>
-      <c r="V8" s="153"/>
-      <c r="W8" s="153"/>
-      <c r="X8" s="153"/>
-      <c r="Y8" s="153"/>
-      <c r="Z8" s="153"/>
-      <c r="AA8" s="153"/>
+      <c r="M8" s="133"/>
+      <c r="N8" s="133"/>
+      <c r="O8" s="133"/>
+      <c r="P8" s="133"/>
+      <c r="Q8" s="133"/>
+      <c r="R8" s="133"/>
+      <c r="S8" s="133"/>
+      <c r="T8" s="133"/>
+      <c r="U8" s="133"/>
+      <c r="V8" s="133"/>
+      <c r="W8" s="133"/>
+      <c r="X8" s="133"/>
+      <c r="Y8" s="133"/>
+      <c r="Z8" s="133"/>
+      <c r="AA8" s="133"/>
       <c r="AB8" s="7"/>
       <c r="AC8" s="7"/>
       <c r="AD8" s="7"/>
@@ -11009,31 +11022,31 @@
     <row r="9" spans="1:32" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="31"/>
       <c r="B9" s="31"/>
-      <c r="C9" s="147"/>
-      <c r="D9" s="148"/>
-      <c r="E9" s="148"/>
-      <c r="F9" s="148"/>
-      <c r="G9" s="149"/>
+      <c r="C9" s="140"/>
+      <c r="D9" s="141"/>
+      <c r="E9" s="141"/>
+      <c r="F9" s="141"/>
+      <c r="G9" s="142"/>
       <c r="H9" s="33"/>
       <c r="I9" s="33"/>
       <c r="J9" s="33"/>
       <c r="K9" s="33"/>
       <c r="L9" s="33"/>
-      <c r="M9" s="153"/>
-      <c r="N9" s="153"/>
-      <c r="O9" s="153"/>
-      <c r="P9" s="153"/>
-      <c r="Q9" s="153"/>
-      <c r="R9" s="153"/>
-      <c r="S9" s="153"/>
-      <c r="T9" s="153"/>
-      <c r="U9" s="153"/>
-      <c r="V9" s="153"/>
-      <c r="W9" s="153"/>
-      <c r="X9" s="153"/>
-      <c r="Y9" s="153"/>
-      <c r="Z9" s="153"/>
-      <c r="AA9" s="153"/>
+      <c r="M9" s="133"/>
+      <c r="N9" s="133"/>
+      <c r="O9" s="133"/>
+      <c r="P9" s="133"/>
+      <c r="Q9" s="133"/>
+      <c r="R9" s="133"/>
+      <c r="S9" s="133"/>
+      <c r="T9" s="133"/>
+      <c r="U9" s="133"/>
+      <c r="V9" s="133"/>
+      <c r="W9" s="133"/>
+      <c r="X9" s="133"/>
+      <c r="Y9" s="133"/>
+      <c r="Z9" s="133"/>
+      <c r="AA9" s="133"/>
       <c r="AB9" s="7"/>
       <c r="AC9" s="7"/>
       <c r="AD9" s="7"/>
@@ -11048,21 +11061,21 @@
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
-      <c r="M10" s="153"/>
-      <c r="N10" s="153"/>
-      <c r="O10" s="153"/>
-      <c r="P10" s="153"/>
-      <c r="Q10" s="153"/>
-      <c r="R10" s="153"/>
-      <c r="S10" s="153"/>
-      <c r="T10" s="153"/>
-      <c r="U10" s="153"/>
-      <c r="V10" s="153"/>
-      <c r="W10" s="153"/>
-      <c r="X10" s="153"/>
-      <c r="Y10" s="153"/>
-      <c r="Z10" s="153"/>
-      <c r="AA10" s="153"/>
+      <c r="M10" s="133"/>
+      <c r="N10" s="133"/>
+      <c r="O10" s="133"/>
+      <c r="P10" s="133"/>
+      <c r="Q10" s="133"/>
+      <c r="R10" s="133"/>
+      <c r="S10" s="133"/>
+      <c r="T10" s="133"/>
+      <c r="U10" s="133"/>
+      <c r="V10" s="133"/>
+      <c r="W10" s="133"/>
+      <c r="X10" s="133"/>
+      <c r="Y10" s="133"/>
+      <c r="Z10" s="133"/>
+      <c r="AA10" s="133"/>
       <c r="AB10" s="7"/>
       <c r="AC10" s="7"/>
       <c r="AD10" s="7"/>
@@ -11074,27 +11087,27 @@
       <c r="C11" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="D11" s="141"/>
-      <c r="E11" s="142"/>
-      <c r="F11" s="142"/>
-      <c r="G11" s="142"/>
-      <c r="H11" s="142"/>
-      <c r="I11" s="143"/>
-      <c r="M11" s="153"/>
-      <c r="N11" s="153"/>
-      <c r="O11" s="153"/>
-      <c r="P11" s="153"/>
-      <c r="Q11" s="153"/>
-      <c r="R11" s="153"/>
-      <c r="S11" s="153"/>
-      <c r="T11" s="153"/>
-      <c r="U11" s="153"/>
-      <c r="V11" s="153"/>
-      <c r="W11" s="153"/>
-      <c r="X11" s="153"/>
-      <c r="Y11" s="153"/>
-      <c r="Z11" s="153"/>
-      <c r="AA11" s="153"/>
+      <c r="D11" s="129"/>
+      <c r="E11" s="130"/>
+      <c r="F11" s="130"/>
+      <c r="G11" s="130"/>
+      <c r="H11" s="130"/>
+      <c r="I11" s="131"/>
+      <c r="M11" s="133"/>
+      <c r="N11" s="133"/>
+      <c r="O11" s="133"/>
+      <c r="P11" s="133"/>
+      <c r="Q11" s="133"/>
+      <c r="R11" s="133"/>
+      <c r="S11" s="133"/>
+      <c r="T11" s="133"/>
+      <c r="U11" s="133"/>
+      <c r="V11" s="133"/>
+      <c r="W11" s="133"/>
+      <c r="X11" s="133"/>
+      <c r="Y11" s="133"/>
+      <c r="Z11" s="133"/>
+      <c r="AA11" s="133"/>
       <c r="AB11" s="7"/>
       <c r="AC11" s="7"/>
       <c r="AD11" s="7"/>
@@ -11104,21 +11117,21 @@
     <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" s="13"/>
       <c r="B12" s="13"/>
-      <c r="M12" s="153"/>
-      <c r="N12" s="153"/>
-      <c r="O12" s="153"/>
-      <c r="P12" s="153"/>
-      <c r="Q12" s="153"/>
-      <c r="R12" s="153"/>
-      <c r="S12" s="153"/>
-      <c r="T12" s="153"/>
-      <c r="U12" s="153"/>
-      <c r="V12" s="153"/>
-      <c r="W12" s="153"/>
-      <c r="X12" s="153"/>
-      <c r="Y12" s="153"/>
-      <c r="Z12" s="153"/>
-      <c r="AA12" s="153"/>
+      <c r="M12" s="133"/>
+      <c r="N12" s="133"/>
+      <c r="O12" s="133"/>
+      <c r="P12" s="133"/>
+      <c r="Q12" s="133"/>
+      <c r="R12" s="133"/>
+      <c r="S12" s="133"/>
+      <c r="T12" s="133"/>
+      <c r="U12" s="133"/>
+      <c r="V12" s="133"/>
+      <c r="W12" s="133"/>
+      <c r="X12" s="133"/>
+      <c r="Y12" s="133"/>
+      <c r="Z12" s="133"/>
+      <c r="AA12" s="133"/>
       <c r="AB12" s="7"/>
       <c r="AC12" s="7"/>
       <c r="AD12" s="7"/>
@@ -11135,23 +11148,23 @@
       <c r="H13" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="I13" s="141"/>
-      <c r="J13" s="143"/>
-      <c r="M13" s="153"/>
-      <c r="N13" s="153"/>
-      <c r="O13" s="153"/>
-      <c r="P13" s="153"/>
-      <c r="Q13" s="153"/>
-      <c r="R13" s="153"/>
-      <c r="S13" s="153"/>
-      <c r="T13" s="153"/>
-      <c r="U13" s="153"/>
-      <c r="V13" s="153"/>
-      <c r="W13" s="153"/>
-      <c r="X13" s="153"/>
-      <c r="Y13" s="153"/>
-      <c r="Z13" s="153"/>
-      <c r="AA13" s="153"/>
+      <c r="I13" s="129"/>
+      <c r="J13" s="131"/>
+      <c r="M13" s="133"/>
+      <c r="N13" s="133"/>
+      <c r="O13" s="133"/>
+      <c r="P13" s="133"/>
+      <c r="Q13" s="133"/>
+      <c r="R13" s="133"/>
+      <c r="S13" s="133"/>
+      <c r="T13" s="133"/>
+      <c r="U13" s="133"/>
+      <c r="V13" s="133"/>
+      <c r="W13" s="133"/>
+      <c r="X13" s="133"/>
+      <c r="Y13" s="133"/>
+      <c r="Z13" s="133"/>
+      <c r="AA13" s="133"/>
       <c r="AB13" s="7"/>
       <c r="AC13" s="7"/>
       <c r="AD13" s="7"/>
@@ -11189,26 +11202,26 @@
       <c r="H15" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="I15" s="141"/>
-      <c r="J15" s="143"/>
+      <c r="I15" s="129"/>
+      <c r="J15" s="131"/>
       <c r="K15" s="74"/>
       <c r="L15" s="74"/>
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B16" s="104" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="17" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C17" s="97" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D17" s="23"/>
       <c r="H17" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="I17" s="141"/>
-      <c r="J17" s="143"/>
+      <c r="I17" s="129"/>
+      <c r="J17" s="131"/>
     </row>
     <row r="19" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C19" s="13" t="s">
@@ -11218,12 +11231,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="J3:L3"/>
     <mergeCell ref="M3:AA13"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:G4"/>
@@ -11236,6 +11243,12 @@
     <mergeCell ref="C7:G7"/>
     <mergeCell ref="C8:G9"/>
     <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="J3:L3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
